--- a/generator/masterdata.xlsx
+++ b/generator/masterdata.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A102F3D3-58E9-473F-A04D-0DA0FEC1067A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DFD6C-DE74-4E19-8C23-FF9C12738E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="years" sheetId="4" r:id="rId1"/>
+    <sheet name="years" sheetId="7" r:id="rId1"/>
     <sheet name="weeks" sheetId="3" r:id="rId2"/>
     <sheet name="customers" sheetId="1" r:id="rId3"/>
     <sheet name="materials" sheetId="2" r:id="rId4"/>
+    <sheet name="prices EUR" sheetId="5" r:id="rId5"/>
+    <sheet name="prices USD" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
   <si>
     <t>Rocky Mountain Bikes</t>
   </si>
@@ -304,115 +306,112 @@
     <t>Reason</t>
   </si>
   <si>
+    <t>VKORG</t>
+  </si>
+  <si>
+    <t>VTWEG</t>
+  </si>
+  <si>
+    <t>SPART</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>DS00</t>
+  </si>
+  <si>
+    <t>DN00</t>
+  </si>
+  <si>
+    <t>UE00</t>
+  </si>
+  <si>
+    <t>UW00</t>
+  </si>
+  <si>
+    <t>RHMT1000</t>
+  </si>
+  <si>
+    <t>RKIT1000</t>
+  </si>
+  <si>
+    <t>SHRT1000</t>
+  </si>
+  <si>
+    <t>BOTL1000</t>
+  </si>
+  <si>
+    <t>CAGE1000</t>
+  </si>
+  <si>
+    <t>DGRB2000</t>
+  </si>
+  <si>
+    <t>DGRR2000</t>
+  </si>
+  <si>
+    <t>DGRW2000</t>
+  </si>
+  <si>
+    <t>DXTR1000</t>
+  </si>
+  <si>
+    <t>DXTR2000</t>
+  </si>
+  <si>
+    <t>DXTR3000</t>
+  </si>
+  <si>
+    <t>EPAD1000</t>
+  </si>
+  <si>
+    <t>FAID1000</t>
+  </si>
+  <si>
+    <t>GRBL2000</t>
+  </si>
+  <si>
+    <t>GRRL2000</t>
+  </si>
+  <si>
+    <t>GRWL2000</t>
+  </si>
+  <si>
+    <t>KPAD1000</t>
+  </si>
+  <si>
+    <t>OHMT1000</t>
+  </si>
+  <si>
+    <t>ORBC1000</t>
+  </si>
+  <si>
+    <t>ORMN1000</t>
+  </si>
+  <si>
+    <t>ORWN1000</t>
+  </si>
+  <si>
+    <t>PRTR1000</t>
+  </si>
+  <si>
+    <t>PRTR2000</t>
+  </si>
+  <si>
+    <t>PRTR3000</t>
+  </si>
+  <si>
+    <t>PUMP1000</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Growth</t>
-  </si>
-  <si>
-    <t>Salesprice</t>
-  </si>
-  <si>
-    <t>VKORG</t>
-  </si>
-  <si>
-    <t>VTWEG</t>
-  </si>
-  <si>
-    <t>SPART</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>DS00</t>
-  </si>
-  <si>
-    <t>DN00</t>
-  </si>
-  <si>
-    <t>UE00</t>
-  </si>
-  <si>
-    <t>UW00</t>
-  </si>
-  <si>
-    <t>RHMT1000</t>
-  </si>
-  <si>
-    <t>RKIT1000</t>
-  </si>
-  <si>
-    <t>SHRT1000</t>
-  </si>
-  <si>
-    <t>BOTL1000</t>
-  </si>
-  <si>
-    <t>CAGE1000</t>
-  </si>
-  <si>
-    <t>DGRB2000</t>
-  </si>
-  <si>
-    <t>DGRR2000</t>
-  </si>
-  <si>
-    <t>DGRW2000</t>
-  </si>
-  <si>
-    <t>DXTR1000</t>
-  </si>
-  <si>
-    <t>DXTR2000</t>
-  </si>
-  <si>
-    <t>DXTR3000</t>
-  </si>
-  <si>
-    <t>EPAD1000</t>
-  </si>
-  <si>
-    <t>FAID1000</t>
-  </si>
-  <si>
-    <t>GRBL2000</t>
-  </si>
-  <si>
-    <t>GRRL2000</t>
-  </si>
-  <si>
-    <t>GRWL2000</t>
-  </si>
-  <si>
-    <t>KPAD1000</t>
-  </si>
-  <si>
-    <t>OHMT1000</t>
-  </si>
-  <si>
-    <t>ORBC1000</t>
-  </si>
-  <si>
-    <t>ORMN1000</t>
-  </si>
-  <si>
-    <t>ORWN1000</t>
-  </si>
-  <si>
-    <t>PRTR1000</t>
-  </si>
-  <si>
-    <t>PRTR2000</t>
-  </si>
-  <si>
-    <t>PRTR3000</t>
-  </si>
-  <si>
-    <t>PUMP1000</t>
   </si>
 </sst>
 </file>
@@ -756,10 +755,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F085220-F61A-4D10-9AB9-F0D53D15F226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D9E596-51CC-440C-8BFE-8B4B0D6F8F00}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -767,10 +766,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1362,7 +1361,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,13 +1386,13 @@
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1410,13 +1409,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1433,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1456,13 +1455,13 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1479,13 +1478,13 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1502,13 +1501,13 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1525,13 +1524,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1548,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,13 +1570,13 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1594,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1617,13 +1616,13 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1640,13 +1639,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1663,13 +1662,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1686,13 +1685,13 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1709,13 +1708,13 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,13 +1731,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1755,13 +1754,13 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1778,13 +1777,13 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,13 +1800,13 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1824,13 +1823,13 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1847,13 +1846,13 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1867,16 +1866,16 @@
         <v>46</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,13 +1892,13 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1916,13 +1915,13 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1939,13 +1938,13 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1959,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2E5201-7E8F-412B-9CA7-DAC430378AA1}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,7 +1972,7 @@
     <col min="4" max="4" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,13 +1988,10 @@
       <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -2009,466 +2005,3362 @@
       <c r="E2">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0D86CA-C480-4207-978B-DFF5473555A0}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
       <c r="F2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
         <v>57</v>
       </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
       <c r="E3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>390</v>
+      </c>
+      <c r="D4">
+        <v>390</v>
+      </c>
+      <c r="E4">
+        <v>390</v>
+      </c>
+      <c r="F4">
+        <v>390</v>
+      </c>
+      <c r="G4">
+        <v>390</v>
+      </c>
+      <c r="H4">
+        <v>390</v>
+      </c>
+      <c r="I4">
+        <v>390</v>
+      </c>
+      <c r="J4">
+        <v>390</v>
+      </c>
+      <c r="K4">
+        <v>390</v>
+      </c>
+      <c r="L4">
+        <v>390</v>
+      </c>
+      <c r="M4">
+        <v>390</v>
+      </c>
+      <c r="N4">
+        <v>390</v>
+      </c>
+      <c r="O4">
+        <v>390</v>
+      </c>
+      <c r="P4">
+        <v>390</v>
+      </c>
+      <c r="Q4">
+        <v>390</v>
+      </c>
+      <c r="R4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>390</v>
+      </c>
+      <c r="D5">
+        <v>390</v>
+      </c>
+      <c r="E5">
+        <v>390</v>
+      </c>
+      <c r="F5">
+        <v>390</v>
+      </c>
+      <c r="G5">
+        <v>390</v>
+      </c>
+      <c r="H5">
+        <v>390</v>
+      </c>
+      <c r="I5">
+        <v>390</v>
+      </c>
+      <c r="J5">
+        <v>390</v>
+      </c>
+      <c r="K5">
+        <v>390</v>
+      </c>
+      <c r="L5">
+        <v>390</v>
+      </c>
+      <c r="M5">
+        <v>390</v>
+      </c>
+      <c r="N5">
+        <v>390</v>
+      </c>
+      <c r="O5">
+        <v>390</v>
+      </c>
+      <c r="P5">
+        <v>390</v>
+      </c>
+      <c r="Q5">
+        <v>390</v>
+      </c>
+      <c r="R5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>390</v>
+      </c>
+      <c r="D6">
+        <v>390</v>
+      </c>
+      <c r="E6">
+        <v>390</v>
+      </c>
+      <c r="F6">
+        <v>390</v>
+      </c>
+      <c r="G6">
+        <v>390</v>
+      </c>
+      <c r="H6">
+        <v>390</v>
+      </c>
+      <c r="I6">
+        <v>390</v>
+      </c>
+      <c r="J6">
+        <v>390</v>
+      </c>
+      <c r="K6">
+        <v>390</v>
+      </c>
+      <c r="L6">
+        <v>390</v>
+      </c>
+      <c r="M6">
+        <v>390</v>
+      </c>
+      <c r="N6">
+        <v>390</v>
+      </c>
+      <c r="O6">
+        <v>390</v>
+      </c>
+      <c r="P6">
+        <v>390</v>
+      </c>
+      <c r="Q6">
+        <v>390</v>
+      </c>
+      <c r="R6">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
+        <v>3000</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <v>3000</v>
+      </c>
+      <c r="L7">
+        <v>3000</v>
+      </c>
+      <c r="M7">
+        <v>3000</v>
+      </c>
+      <c r="N7">
+        <v>3000</v>
+      </c>
+      <c r="O7">
+        <v>3000</v>
+      </c>
+      <c r="P7">
+        <v>3000</v>
+      </c>
+      <c r="Q7">
+        <v>3000</v>
+      </c>
+      <c r="R7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <v>3000</v>
+      </c>
+      <c r="G8">
+        <v>3000</v>
+      </c>
+      <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8">
+        <v>3000</v>
+      </c>
+      <c r="J8">
+        <v>3000</v>
+      </c>
+      <c r="K8">
+        <v>3000</v>
+      </c>
+      <c r="L8">
+        <v>3000</v>
+      </c>
+      <c r="M8">
+        <v>3000</v>
+      </c>
+      <c r="N8">
+        <v>3000</v>
+      </c>
+      <c r="O8">
+        <v>3000</v>
+      </c>
+      <c r="P8">
+        <v>3000</v>
+      </c>
+      <c r="Q8">
+        <v>3000</v>
+      </c>
+      <c r="R8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>112</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <v>3000</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>3000</v>
+      </c>
+      <c r="I9">
+        <v>3000</v>
+      </c>
+      <c r="J9">
+        <v>3000</v>
+      </c>
+      <c r="K9">
+        <v>3000</v>
+      </c>
+      <c r="L9">
+        <v>3000</v>
+      </c>
+      <c r="M9">
+        <v>3000</v>
+      </c>
+      <c r="N9">
+        <v>3000</v>
+      </c>
+      <c r="O9">
+        <v>3000</v>
+      </c>
+      <c r="P9">
+        <v>3000</v>
+      </c>
+      <c r="Q9">
+        <v>3000</v>
+      </c>
+      <c r="R9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>113</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>75</v>
+      </c>
+      <c r="J10">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <v>75</v>
+      </c>
+      <c r="P10">
+        <v>75</v>
+      </c>
+      <c r="Q10">
+        <v>75</v>
+      </c>
+      <c r="R10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
       <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
         <v>68</v>
       </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
       <c r="E11">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
+      </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="R11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>330</v>
+      </c>
+      <c r="D12">
+        <v>330</v>
+      </c>
+      <c r="E12">
+        <v>330</v>
+      </c>
+      <c r="F12">
+        <v>330</v>
+      </c>
+      <c r="G12">
+        <v>330</v>
+      </c>
+      <c r="H12">
+        <v>330</v>
+      </c>
+      <c r="I12">
+        <v>330</v>
+      </c>
+      <c r="J12">
+        <v>330</v>
+      </c>
+      <c r="K12">
+        <v>330</v>
+      </c>
+      <c r="L12">
+        <v>330</v>
+      </c>
+      <c r="M12">
+        <v>330</v>
+      </c>
+      <c r="N12">
+        <v>330</v>
+      </c>
+      <c r="O12">
+        <v>330</v>
+      </c>
+      <c r="P12">
+        <v>330</v>
+      </c>
+      <c r="Q12">
+        <v>330</v>
+      </c>
+      <c r="R12">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>330</v>
+      </c>
+      <c r="D13">
+        <v>330</v>
+      </c>
+      <c r="E13">
+        <v>330</v>
+      </c>
+      <c r="F13">
+        <v>330</v>
+      </c>
+      <c r="G13">
+        <v>330</v>
+      </c>
+      <c r="H13">
+        <v>330</v>
+      </c>
+      <c r="I13">
+        <v>330</v>
+      </c>
+      <c r="J13">
+        <v>330</v>
+      </c>
+      <c r="K13">
+        <v>330</v>
+      </c>
+      <c r="L13">
+        <v>330</v>
+      </c>
+      <c r="M13">
+        <v>330</v>
+      </c>
+      <c r="N13">
+        <v>330</v>
+      </c>
+      <c r="O13">
+        <v>330</v>
+      </c>
+      <c r="P13">
+        <v>330</v>
+      </c>
+      <c r="Q13">
+        <v>330</v>
+      </c>
+      <c r="R13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>330</v>
+      </c>
+      <c r="D14">
+        <v>330</v>
+      </c>
+      <c r="E14">
+        <v>330</v>
+      </c>
+      <c r="F14">
+        <v>330</v>
+      </c>
+      <c r="G14">
+        <v>330</v>
+      </c>
+      <c r="H14">
+        <v>330</v>
+      </c>
+      <c r="I14">
+        <v>330</v>
+      </c>
+      <c r="J14">
+        <v>330</v>
+      </c>
+      <c r="K14">
+        <v>330</v>
+      </c>
+      <c r="L14">
+        <v>330</v>
+      </c>
+      <c r="M14">
+        <v>330</v>
+      </c>
+      <c r="N14">
+        <v>330</v>
+      </c>
+      <c r="O14">
+        <v>330</v>
+      </c>
+      <c r="P14">
+        <v>330</v>
+      </c>
+      <c r="Q14">
+        <v>330</v>
+      </c>
+      <c r="R14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>118</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>75</v>
+      </c>
+      <c r="J15">
+        <v>75</v>
+      </c>
+      <c r="K15">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>75</v>
+      </c>
+      <c r="M15">
+        <v>75</v>
+      </c>
+      <c r="N15">
+        <v>75</v>
+      </c>
+      <c r="O15">
+        <v>75</v>
+      </c>
+      <c r="P15">
+        <v>75</v>
+      </c>
+      <c r="Q15">
+        <v>75</v>
+      </c>
+      <c r="R15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="O16">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17">
+        <v>250</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+      <c r="I17">
+        <v>250</v>
+      </c>
+      <c r="J17">
+        <v>250</v>
+      </c>
+      <c r="K17">
+        <v>250</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17">
+        <v>250</v>
+      </c>
+      <c r="N17">
+        <v>250</v>
+      </c>
+      <c r="O17">
+        <v>250</v>
+      </c>
+      <c r="P17">
+        <v>250</v>
+      </c>
+      <c r="Q17">
+        <v>250</v>
+      </c>
+      <c r="R17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>121</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>124</v>
-      </c>
       <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>2400</v>
+      </c>
+      <c r="D18">
+        <v>2400</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>2400</v>
       </c>
       <c r="F18">
         <v>2400</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>2400</v>
+      </c>
+      <c r="H18">
+        <v>2400</v>
+      </c>
+      <c r="I18">
+        <v>2400</v>
+      </c>
+      <c r="J18">
+        <v>2400</v>
+      </c>
+      <c r="K18">
+        <v>2400</v>
+      </c>
+      <c r="L18">
+        <v>2400</v>
+      </c>
+      <c r="M18">
+        <v>2400</v>
+      </c>
+      <c r="N18">
+        <v>2400</v>
+      </c>
+      <c r="O18">
+        <v>2400</v>
+      </c>
+      <c r="P18">
+        <v>2400</v>
+      </c>
+      <c r="Q18">
+        <v>2400</v>
+      </c>
+      <c r="R18">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
         <v>76</v>
       </c>
+      <c r="C19">
+        <v>2500</v>
+      </c>
+      <c r="D19">
+        <v>2500</v>
+      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="F19">
         <v>2500</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>2500</v>
+      </c>
+      <c r="H19">
+        <v>2500</v>
+      </c>
+      <c r="I19">
+        <v>2500</v>
+      </c>
+      <c r="J19">
+        <v>2500</v>
+      </c>
+      <c r="K19">
+        <v>2500</v>
+      </c>
+      <c r="L19">
+        <v>2500</v>
+      </c>
+      <c r="M19">
+        <v>2500</v>
+      </c>
+      <c r="N19">
+        <v>2500</v>
+      </c>
+      <c r="O19">
+        <v>2500</v>
+      </c>
+      <c r="P19">
+        <v>2500</v>
+      </c>
+      <c r="Q19">
+        <v>2500</v>
+      </c>
+      <c r="R19">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20">
+        <v>3200</v>
+      </c>
+      <c r="D20">
+        <v>3200</v>
+      </c>
+      <c r="E20">
+        <v>3200</v>
+      </c>
+      <c r="F20">
+        <v>3200</v>
+      </c>
+      <c r="G20">
+        <v>3200</v>
+      </c>
+      <c r="H20">
+        <v>3200</v>
+      </c>
+      <c r="I20">
+        <v>3200</v>
+      </c>
+      <c r="J20">
+        <v>3200</v>
+      </c>
+      <c r="K20">
+        <v>3200</v>
+      </c>
+      <c r="L20">
+        <v>3200</v>
+      </c>
+      <c r="M20">
+        <v>3200</v>
+      </c>
+      <c r="N20">
+        <v>3200</v>
+      </c>
+      <c r="O20">
+        <v>3200</v>
+      </c>
+      <c r="P20">
+        <v>3200</v>
+      </c>
+      <c r="Q20">
+        <v>3200</v>
+      </c>
+      <c r="R20">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21">
+        <v>3200</v>
+      </c>
+      <c r="D21">
+        <v>3200</v>
+      </c>
+      <c r="E21">
+        <v>3200</v>
+      </c>
+      <c r="F21">
+        <v>3200</v>
+      </c>
+      <c r="G21">
+        <v>3200</v>
+      </c>
+      <c r="H21">
+        <v>3200</v>
+      </c>
+      <c r="I21">
+        <v>3200</v>
+      </c>
+      <c r="J21">
+        <v>3200</v>
+      </c>
+      <c r="K21">
+        <v>3200</v>
+      </c>
+      <c r="L21">
+        <v>3200</v>
+      </c>
+      <c r="M21">
+        <v>3200</v>
+      </c>
+      <c r="N21">
+        <v>3200</v>
+      </c>
+      <c r="O21">
+        <v>3200</v>
+      </c>
+      <c r="P21">
+        <v>3200</v>
+      </c>
+      <c r="Q21">
+        <v>3200</v>
+      </c>
+      <c r="R21">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>3200</v>
+      </c>
+      <c r="D22">
+        <v>3200</v>
+      </c>
+      <c r="E22">
+        <v>3200</v>
+      </c>
+      <c r="F22">
+        <v>3200</v>
+      </c>
+      <c r="G22">
+        <v>3200</v>
+      </c>
+      <c r="H22">
+        <v>3200</v>
+      </c>
+      <c r="I22">
+        <v>3200</v>
+      </c>
+      <c r="J22">
+        <v>3200</v>
+      </c>
+      <c r="K22">
+        <v>3200</v>
+      </c>
+      <c r="L22">
+        <v>3200</v>
+      </c>
+      <c r="M22">
+        <v>3200</v>
+      </c>
+      <c r="N22">
+        <v>3200</v>
+      </c>
+      <c r="O22">
+        <v>3200</v>
+      </c>
+      <c r="P22">
+        <v>3200</v>
+      </c>
+      <c r="Q22">
+        <v>3200</v>
+      </c>
+      <c r="R22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>126</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>129</v>
-      </c>
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
         <v>80</v>
       </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
       <c r="E23">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>28</v>
+      </c>
+      <c r="K23">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>28</v>
+      </c>
+      <c r="N23">
+        <v>28</v>
+      </c>
+      <c r="O23">
+        <v>28</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23">
+        <v>28</v>
+      </c>
+      <c r="R23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
         <v>81</v>
       </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
       <c r="E24">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>50</v>
+      </c>
+      <c r="N24">
+        <v>50</v>
+      </c>
+      <c r="O24">
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+      <c r="Q24">
+        <v>50</v>
+      </c>
+      <c r="R24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
         <v>82</v>
       </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
       <c r="E25">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>32</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>32</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>32</v>
+      </c>
+      <c r="N25">
+        <v>32</v>
+      </c>
+      <c r="O25">
+        <v>32</v>
+      </c>
+      <c r="P25">
+        <v>32</v>
+      </c>
+      <c r="Q25">
+        <v>32</v>
+      </c>
+      <c r="R25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
+      <c r="R26">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4EACD5-3DDB-4A06-AA6C-C8F9511D9F67}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>107</v>
       </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>390</v>
+      </c>
+      <c r="D4">
+        <v>390</v>
+      </c>
+      <c r="E4">
+        <v>390</v>
+      </c>
+      <c r="F4">
+        <v>390</v>
+      </c>
+      <c r="G4">
+        <v>390</v>
+      </c>
+      <c r="H4">
+        <v>390</v>
+      </c>
+      <c r="I4">
+        <v>390</v>
+      </c>
+      <c r="J4">
+        <v>390</v>
+      </c>
+      <c r="K4">
+        <v>390</v>
+      </c>
+      <c r="L4">
+        <v>390</v>
+      </c>
+      <c r="M4">
+        <v>390</v>
+      </c>
+      <c r="N4">
+        <v>390</v>
+      </c>
+      <c r="O4">
+        <v>390</v>
+      </c>
+      <c r="P4">
+        <v>390</v>
+      </c>
+      <c r="Q4">
+        <v>390</v>
+      </c>
+      <c r="R4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>390</v>
+      </c>
+      <c r="D5">
+        <v>390</v>
+      </c>
+      <c r="E5">
+        <v>390</v>
+      </c>
+      <c r="F5">
+        <v>390</v>
+      </c>
+      <c r="G5">
+        <v>390</v>
+      </c>
+      <c r="H5">
+        <v>390</v>
+      </c>
+      <c r="I5">
+        <v>390</v>
+      </c>
+      <c r="J5">
+        <v>390</v>
+      </c>
+      <c r="K5">
+        <v>390</v>
+      </c>
+      <c r="L5">
+        <v>390</v>
+      </c>
+      <c r="M5">
+        <v>390</v>
+      </c>
+      <c r="N5">
+        <v>390</v>
+      </c>
+      <c r="O5">
+        <v>390</v>
+      </c>
+      <c r="P5">
+        <v>390</v>
+      </c>
+      <c r="Q5">
+        <v>390</v>
+      </c>
+      <c r="R5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>390</v>
+      </c>
+      <c r="D6">
+        <v>390</v>
+      </c>
+      <c r="E6">
+        <v>390</v>
+      </c>
+      <c r="F6">
+        <v>390</v>
+      </c>
+      <c r="G6">
+        <v>390</v>
+      </c>
+      <c r="H6">
+        <v>390</v>
+      </c>
+      <c r="I6">
+        <v>390</v>
+      </c>
+      <c r="J6">
+        <v>390</v>
+      </c>
+      <c r="K6">
+        <v>390</v>
+      </c>
+      <c r="L6">
+        <v>390</v>
+      </c>
+      <c r="M6">
+        <v>390</v>
+      </c>
+      <c r="N6">
+        <v>390</v>
+      </c>
+      <c r="O6">
+        <v>390</v>
+      </c>
+      <c r="P6">
+        <v>390</v>
+      </c>
+      <c r="Q6">
+        <v>390</v>
+      </c>
+      <c r="R6">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
+        <v>3000</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <v>3000</v>
+      </c>
+      <c r="L7">
+        <v>3000</v>
+      </c>
+      <c r="M7">
+        <v>3000</v>
+      </c>
+      <c r="N7">
+        <v>3000</v>
+      </c>
+      <c r="O7">
+        <v>3000</v>
+      </c>
+      <c r="P7">
+        <v>3000</v>
+      </c>
+      <c r="Q7">
+        <v>3000</v>
+      </c>
+      <c r="R7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <v>3000</v>
+      </c>
+      <c r="G8">
+        <v>3000</v>
+      </c>
+      <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8">
+        <v>3000</v>
+      </c>
+      <c r="J8">
+        <v>3000</v>
+      </c>
+      <c r="K8">
+        <v>3000</v>
+      </c>
+      <c r="L8">
+        <v>3000</v>
+      </c>
+      <c r="M8">
+        <v>3000</v>
+      </c>
+      <c r="N8">
+        <v>3000</v>
+      </c>
+      <c r="O8">
+        <v>3000</v>
+      </c>
+      <c r="P8">
+        <v>3000</v>
+      </c>
+      <c r="Q8">
+        <v>3000</v>
+      </c>
+      <c r="R8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <v>3000</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>3000</v>
+      </c>
+      <c r="I9">
+        <v>3000</v>
+      </c>
+      <c r="J9">
+        <v>3000</v>
+      </c>
+      <c r="K9">
+        <v>3000</v>
+      </c>
+      <c r="L9">
+        <v>3000</v>
+      </c>
+      <c r="M9">
+        <v>3000</v>
+      </c>
+      <c r="N9">
+        <v>3000</v>
+      </c>
+      <c r="O9">
+        <v>3000</v>
+      </c>
+      <c r="P9">
+        <v>3000</v>
+      </c>
+      <c r="Q9">
+        <v>3000</v>
+      </c>
+      <c r="R9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>75</v>
+      </c>
+      <c r="J10">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <v>75</v>
+      </c>
+      <c r="P10">
+        <v>75</v>
+      </c>
+      <c r="Q10">
+        <v>75</v>
+      </c>
+      <c r="R10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
+      </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="R11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>330</v>
+      </c>
+      <c r="D12">
+        <v>330</v>
+      </c>
+      <c r="E12">
+        <v>330</v>
+      </c>
+      <c r="F12">
+        <v>330</v>
+      </c>
+      <c r="G12">
+        <v>330</v>
+      </c>
+      <c r="H12">
+        <v>330</v>
+      </c>
+      <c r="I12">
+        <v>330</v>
+      </c>
+      <c r="J12">
+        <v>330</v>
+      </c>
+      <c r="K12">
+        <v>330</v>
+      </c>
+      <c r="L12">
+        <v>330</v>
+      </c>
+      <c r="M12">
+        <v>330</v>
+      </c>
+      <c r="N12">
+        <v>330</v>
+      </c>
+      <c r="O12">
+        <v>330</v>
+      </c>
+      <c r="P12">
+        <v>330</v>
+      </c>
+      <c r="Q12">
+        <v>330</v>
+      </c>
+      <c r="R12">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>330</v>
+      </c>
+      <c r="D13">
+        <v>330</v>
+      </c>
+      <c r="E13">
+        <v>330</v>
+      </c>
+      <c r="F13">
+        <v>330</v>
+      </c>
+      <c r="G13">
+        <v>330</v>
+      </c>
+      <c r="H13">
+        <v>330</v>
+      </c>
+      <c r="I13">
+        <v>330</v>
+      </c>
+      <c r="J13">
+        <v>330</v>
+      </c>
+      <c r="K13">
+        <v>330</v>
+      </c>
+      <c r="L13">
+        <v>330</v>
+      </c>
+      <c r="M13">
+        <v>330</v>
+      </c>
+      <c r="N13">
+        <v>330</v>
+      </c>
+      <c r="O13">
+        <v>330</v>
+      </c>
+      <c r="P13">
+        <v>330</v>
+      </c>
+      <c r="Q13">
+        <v>330</v>
+      </c>
+      <c r="R13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>330</v>
+      </c>
+      <c r="D14">
+        <v>330</v>
+      </c>
+      <c r="E14">
+        <v>330</v>
+      </c>
+      <c r="F14">
+        <v>330</v>
+      </c>
+      <c r="G14">
+        <v>330</v>
+      </c>
+      <c r="H14">
+        <v>330</v>
+      </c>
+      <c r="I14">
+        <v>330</v>
+      </c>
+      <c r="J14">
+        <v>330</v>
+      </c>
+      <c r="K14">
+        <v>330</v>
+      </c>
+      <c r="L14">
+        <v>330</v>
+      </c>
+      <c r="M14">
+        <v>330</v>
+      </c>
+      <c r="N14">
+        <v>330</v>
+      </c>
+      <c r="O14">
+        <v>330</v>
+      </c>
+      <c r="P14">
+        <v>330</v>
+      </c>
+      <c r="Q14">
+        <v>330</v>
+      </c>
+      <c r="R14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>75</v>
+      </c>
+      <c r="J15">
+        <v>75</v>
+      </c>
+      <c r="K15">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>75</v>
+      </c>
+      <c r="M15">
+        <v>75</v>
+      </c>
+      <c r="N15">
+        <v>75</v>
+      </c>
+      <c r="O15">
+        <v>75</v>
+      </c>
+      <c r="P15">
+        <v>75</v>
+      </c>
+      <c r="Q15">
+        <v>75</v>
+      </c>
+      <c r="R15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="O16">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17">
+        <v>250</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+      <c r="I17">
+        <v>250</v>
+      </c>
+      <c r="J17">
+        <v>250</v>
+      </c>
+      <c r="K17">
+        <v>250</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17">
+        <v>250</v>
+      </c>
+      <c r="N17">
+        <v>250</v>
+      </c>
+      <c r="O17">
+        <v>250</v>
+      </c>
+      <c r="P17">
+        <v>250</v>
+      </c>
+      <c r="Q17">
+        <v>250</v>
+      </c>
+      <c r="R17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>2400</v>
+      </c>
+      <c r="D18">
+        <v>2400</v>
+      </c>
+      <c r="E18">
+        <v>2400</v>
+      </c>
+      <c r="F18">
+        <v>2400</v>
+      </c>
+      <c r="G18">
+        <v>2400</v>
+      </c>
+      <c r="H18">
+        <v>2400</v>
+      </c>
+      <c r="I18">
+        <v>2400</v>
+      </c>
+      <c r="J18">
+        <v>2400</v>
+      </c>
+      <c r="K18">
+        <v>2400</v>
+      </c>
+      <c r="L18">
+        <v>2400</v>
+      </c>
+      <c r="M18">
+        <v>2400</v>
+      </c>
+      <c r="N18">
+        <v>2400</v>
+      </c>
+      <c r="O18">
+        <v>2400</v>
+      </c>
+      <c r="P18">
+        <v>2400</v>
+      </c>
+      <c r="Q18">
+        <v>2400</v>
+      </c>
+      <c r="R18">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>2500</v>
+      </c>
+      <c r="D19">
+        <v>2500</v>
+      </c>
+      <c r="E19">
+        <v>2500</v>
+      </c>
+      <c r="F19">
+        <v>2500</v>
+      </c>
+      <c r="G19">
+        <v>2500</v>
+      </c>
+      <c r="H19">
+        <v>2500</v>
+      </c>
+      <c r="I19">
+        <v>2500</v>
+      </c>
+      <c r="J19">
+        <v>2500</v>
+      </c>
+      <c r="K19">
+        <v>2500</v>
+      </c>
+      <c r="L19">
+        <v>2500</v>
+      </c>
+      <c r="M19">
+        <v>2500</v>
+      </c>
+      <c r="N19">
+        <v>2500</v>
+      </c>
+      <c r="O19">
+        <v>2500</v>
+      </c>
+      <c r="P19">
+        <v>2500</v>
+      </c>
+      <c r="Q19">
+        <v>2500</v>
+      </c>
+      <c r="R19">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20">
+        <v>3200</v>
+      </c>
+      <c r="D20">
+        <v>3200</v>
+      </c>
+      <c r="E20">
+        <v>3200</v>
+      </c>
+      <c r="F20">
+        <v>3200</v>
+      </c>
+      <c r="G20">
+        <v>3200</v>
+      </c>
+      <c r="H20">
+        <v>3200</v>
+      </c>
+      <c r="I20">
+        <v>3200</v>
+      </c>
+      <c r="J20">
+        <v>3200</v>
+      </c>
+      <c r="K20">
+        <v>3200</v>
+      </c>
+      <c r="L20">
+        <v>3200</v>
+      </c>
+      <c r="M20">
+        <v>3200</v>
+      </c>
+      <c r="N20">
+        <v>3200</v>
+      </c>
+      <c r="O20">
+        <v>3200</v>
+      </c>
+      <c r="P20">
+        <v>3200</v>
+      </c>
+      <c r="Q20">
+        <v>3200</v>
+      </c>
+      <c r="R20">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21">
+        <v>3200</v>
+      </c>
+      <c r="D21">
+        <v>3200</v>
+      </c>
+      <c r="E21">
+        <v>3200</v>
+      </c>
+      <c r="F21">
+        <v>3200</v>
+      </c>
+      <c r="G21">
+        <v>3200</v>
+      </c>
+      <c r="H21">
+        <v>3200</v>
+      </c>
+      <c r="I21">
+        <v>3200</v>
+      </c>
+      <c r="J21">
+        <v>3200</v>
+      </c>
+      <c r="K21">
+        <v>3200</v>
+      </c>
+      <c r="L21">
+        <v>3200</v>
+      </c>
+      <c r="M21">
+        <v>3200</v>
+      </c>
+      <c r="N21">
+        <v>3200</v>
+      </c>
+      <c r="O21">
+        <v>3200</v>
+      </c>
+      <c r="P21">
+        <v>3200</v>
+      </c>
+      <c r="Q21">
+        <v>3200</v>
+      </c>
+      <c r="R21">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>3200</v>
+      </c>
+      <c r="D22">
+        <v>3200</v>
+      </c>
+      <c r="E22">
+        <v>3200</v>
+      </c>
+      <c r="F22">
+        <v>3200</v>
+      </c>
+      <c r="G22">
+        <v>3200</v>
+      </c>
+      <c r="H22">
+        <v>3200</v>
+      </c>
+      <c r="I22">
+        <v>3200</v>
+      </c>
+      <c r="J22">
+        <v>3200</v>
+      </c>
+      <c r="K22">
+        <v>3200</v>
+      </c>
+      <c r="L22">
+        <v>3200</v>
+      </c>
+      <c r="M22">
+        <v>3200</v>
+      </c>
+      <c r="N22">
+        <v>3200</v>
+      </c>
+      <c r="O22">
+        <v>3200</v>
+      </c>
+      <c r="P22">
+        <v>3200</v>
+      </c>
+      <c r="Q22">
+        <v>3200</v>
+      </c>
+      <c r="R22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>28</v>
+      </c>
+      <c r="K23">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>28</v>
+      </c>
+      <c r="N23">
+        <v>28</v>
+      </c>
+      <c r="O23">
+        <v>28</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23">
+        <v>28</v>
+      </c>
+      <c r="R23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>50</v>
+      </c>
+      <c r="N24">
+        <v>50</v>
+      </c>
+      <c r="O24">
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+      <c r="Q24">
+        <v>50</v>
+      </c>
+      <c r="R24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>32</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>32</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>32</v>
+      </c>
+      <c r="N25">
+        <v>32</v>
+      </c>
+      <c r="O25">
+        <v>32</v>
+      </c>
+      <c r="P25">
+        <v>32</v>
+      </c>
+      <c r="Q25">
+        <v>32</v>
+      </c>
+      <c r="R25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
         <v>83</v>
       </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
       <c r="E26">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
+      <c r="R26">
         <v>30</v>
       </c>
     </row>

--- a/generator/masterdata.xlsx
+++ b/generator/masterdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DFD6C-DE74-4E19-8C23-FF9C12738E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D138FFAD-B52C-495B-95B3-C0501B09BD48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="years" sheetId="7" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="materials" sheetId="2" r:id="rId4"/>
     <sheet name="prices EUR" sheetId="5" r:id="rId5"/>
     <sheet name="prices USD" sheetId="6" r:id="rId6"/>
+    <sheet name="customers x materials" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="129">
   <si>
     <t>Rocky Mountain Bikes</t>
   </si>
@@ -467,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,6 +476,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -758,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D9E596-51CC-440C-8BFE-8B4B0D6F8F00}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1360,9 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1961,7 +1961,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5367,4 +5367,2023 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ED7805-F9C9-44B5-8A0B-A5E579593692}">
+  <dimension ref="A1:Z25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/generator/masterdata.xlsx
+++ b/generator/masterdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D138FFAD-B52C-495B-95B3-C0501B09BD48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C47E7A-C62A-48C2-AAE7-1ED17C57E1C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="years" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="130">
   <si>
     <t>Rocky Mountain Bikes</t>
   </si>
@@ -413,13 +413,16 @@
   </si>
   <si>
     <t>Growth</t>
+  </si>
+  <si>
+    <t>max shipping offset weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +443,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +462,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -468,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,6 +493,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -758,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D9E596-51CC-440C-8BFE-8B4B0D6F8F00}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,47 +795,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>2015</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>2017</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5">
-        <v>-3</v>
+        <v>2018</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -824,47 +843,47 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -872,17 +891,57 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>2028</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2029</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2030</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2031</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2032</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2033</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -894,15 +953,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78CB91A-03BD-4634-8208-D495E4A0E21B}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -912,8 +974,11 @@
       <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -921,304 +986,418 @@
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1228,104 +1407,143 @@
       <c r="C40" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1335,21 +1553,30 @@
       <c r="C53" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <v>0</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1799,8 +2026,8 @@
       <c r="D19">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
-        <v>98</v>
+      <c r="E19" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>97</v>
@@ -1822,8 +2049,8 @@
       <c r="D20">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
-        <v>99</v>
+      <c r="E20" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>97</v>
@@ -1845,8 +2072,8 @@
       <c r="D21">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>101</v>
+      <c r="E21" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>97</v>
@@ -1960,9 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2E5201-7E8F-412B-9CA7-DAC430378AA1}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2421,18 +2646,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0D86CA-C480-4207-978B-DFF5473555A0}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="7.44140625" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2440,55 +2667,19 @@
         <v>53</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D1" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E1" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="F1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -2499,52 +2690,19 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <f>C2+1</f>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <f t="shared" ref="E2:F2" si="0">D2+1</f>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>20</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>20</v>
-      </c>
-      <c r="Q2">
-        <v>20</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2555,52 +2713,19 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <f t="shared" ref="D3:F3" si="1">C3+1</f>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>18</v>
-      </c>
-      <c r="O3">
-        <v>18</v>
-      </c>
-      <c r="P3">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <v>18</v>
-      </c>
-      <c r="R3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -2611,52 +2736,19 @@
         <v>390</v>
       </c>
       <c r="D4">
-        <v>390</v>
+        <f t="shared" ref="D4:F4" si="2">C4+1</f>
+        <v>391</v>
       </c>
       <c r="E4">
-        <v>390</v>
+        <f t="shared" si="2"/>
+        <v>392</v>
       </c>
       <c r="F4">
-        <v>390</v>
-      </c>
-      <c r="G4">
-        <v>390</v>
-      </c>
-      <c r="H4">
-        <v>390</v>
-      </c>
-      <c r="I4">
-        <v>390</v>
-      </c>
-      <c r="J4">
-        <v>390</v>
-      </c>
-      <c r="K4">
-        <v>390</v>
-      </c>
-      <c r="L4">
-        <v>390</v>
-      </c>
-      <c r="M4">
-        <v>390</v>
-      </c>
-      <c r="N4">
-        <v>390</v>
-      </c>
-      <c r="O4">
-        <v>390</v>
-      </c>
-      <c r="P4">
-        <v>390</v>
-      </c>
-      <c r="Q4">
-        <v>390</v>
-      </c>
-      <c r="R4">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2667,52 +2759,19 @@
         <v>390</v>
       </c>
       <c r="D5">
-        <v>390</v>
+        <f t="shared" ref="D5:F5" si="3">C5+1</f>
+        <v>391</v>
       </c>
       <c r="E5">
-        <v>390</v>
+        <f t="shared" si="3"/>
+        <v>392</v>
       </c>
       <c r="F5">
-        <v>390</v>
-      </c>
-      <c r="G5">
-        <v>390</v>
-      </c>
-      <c r="H5">
-        <v>390</v>
-      </c>
-      <c r="I5">
-        <v>390</v>
-      </c>
-      <c r="J5">
-        <v>390</v>
-      </c>
-      <c r="K5">
-        <v>390</v>
-      </c>
-      <c r="L5">
-        <v>390</v>
-      </c>
-      <c r="M5">
-        <v>390</v>
-      </c>
-      <c r="N5">
-        <v>390</v>
-      </c>
-      <c r="O5">
-        <v>390</v>
-      </c>
-      <c r="P5">
-        <v>390</v>
-      </c>
-      <c r="Q5">
-        <v>390</v>
-      </c>
-      <c r="R5">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2723,52 +2782,19 @@
         <v>390</v>
       </c>
       <c r="D6">
-        <v>390</v>
+        <f t="shared" ref="D6:F6" si="4">C6+1</f>
+        <v>391</v>
       </c>
       <c r="E6">
-        <v>390</v>
+        <f t="shared" si="4"/>
+        <v>392</v>
       </c>
       <c r="F6">
-        <v>390</v>
-      </c>
-      <c r="G6">
-        <v>390</v>
-      </c>
-      <c r="H6">
-        <v>390</v>
-      </c>
-      <c r="I6">
-        <v>390</v>
-      </c>
-      <c r="J6">
-        <v>390</v>
-      </c>
-      <c r="K6">
-        <v>390</v>
-      </c>
-      <c r="L6">
-        <v>390</v>
-      </c>
-      <c r="M6">
-        <v>390</v>
-      </c>
-      <c r="N6">
-        <v>390</v>
-      </c>
-      <c r="O6">
-        <v>390</v>
-      </c>
-      <c r="P6">
-        <v>390</v>
-      </c>
-      <c r="Q6">
-        <v>390</v>
-      </c>
-      <c r="R6">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2779,52 +2805,19 @@
         <v>3000</v>
       </c>
       <c r="D7">
-        <v>3000</v>
+        <f t="shared" ref="D7:F7" si="5">C7+1</f>
+        <v>3001</v>
       </c>
       <c r="E7">
-        <v>3000</v>
+        <f t="shared" si="5"/>
+        <v>3002</v>
       </c>
       <c r="F7">
-        <v>3000</v>
-      </c>
-      <c r="G7">
-        <v>3000</v>
-      </c>
-      <c r="H7">
-        <v>3000</v>
-      </c>
-      <c r="I7">
-        <v>3000</v>
-      </c>
-      <c r="J7">
-        <v>3000</v>
-      </c>
-      <c r="K7">
-        <v>3000</v>
-      </c>
-      <c r="L7">
-        <v>3000</v>
-      </c>
-      <c r="M7">
-        <v>3000</v>
-      </c>
-      <c r="N7">
-        <v>3000</v>
-      </c>
-      <c r="O7">
-        <v>3000</v>
-      </c>
-      <c r="P7">
-        <v>3000</v>
-      </c>
-      <c r="Q7">
-        <v>3000</v>
-      </c>
-      <c r="R7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2835,52 +2828,19 @@
         <v>3000</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <f t="shared" ref="D8:F8" si="6">C8+1</f>
+        <v>3001</v>
       </c>
       <c r="E8">
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3002</v>
       </c>
       <c r="F8">
-        <v>3000</v>
-      </c>
-      <c r="G8">
-        <v>3000</v>
-      </c>
-      <c r="H8">
-        <v>3000</v>
-      </c>
-      <c r="I8">
-        <v>3000</v>
-      </c>
-      <c r="J8">
-        <v>3000</v>
-      </c>
-      <c r="K8">
-        <v>3000</v>
-      </c>
-      <c r="L8">
-        <v>3000</v>
-      </c>
-      <c r="M8">
-        <v>3000</v>
-      </c>
-      <c r="N8">
-        <v>3000</v>
-      </c>
-      <c r="O8">
-        <v>3000</v>
-      </c>
-      <c r="P8">
-        <v>3000</v>
-      </c>
-      <c r="Q8">
-        <v>3000</v>
-      </c>
-      <c r="R8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -2891,52 +2851,19 @@
         <v>3000</v>
       </c>
       <c r="D9">
-        <v>3000</v>
+        <f t="shared" ref="D9:F9" si="7">C9+1</f>
+        <v>3001</v>
       </c>
       <c r="E9">
-        <v>3000</v>
+        <f t="shared" si="7"/>
+        <v>3002</v>
       </c>
       <c r="F9">
-        <v>3000</v>
-      </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="H9">
-        <v>3000</v>
-      </c>
-      <c r="I9">
-        <v>3000</v>
-      </c>
-      <c r="J9">
-        <v>3000</v>
-      </c>
-      <c r="K9">
-        <v>3000</v>
-      </c>
-      <c r="L9">
-        <v>3000</v>
-      </c>
-      <c r="M9">
-        <v>3000</v>
-      </c>
-      <c r="N9">
-        <v>3000</v>
-      </c>
-      <c r="O9">
-        <v>3000</v>
-      </c>
-      <c r="P9">
-        <v>3000</v>
-      </c>
-      <c r="Q9">
-        <v>3000</v>
-      </c>
-      <c r="R9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2947,52 +2874,19 @@
         <v>75</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <f t="shared" ref="D10:F10" si="8">C10+1</f>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>77</v>
       </c>
       <c r="F10">
-        <v>75</v>
-      </c>
-      <c r="G10">
-        <v>75</v>
-      </c>
-      <c r="H10">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>75</v>
-      </c>
-      <c r="J10">
-        <v>75</v>
-      </c>
-      <c r="K10">
-        <v>75</v>
-      </c>
-      <c r="L10">
-        <v>75</v>
-      </c>
-      <c r="M10">
-        <v>75</v>
-      </c>
-      <c r="N10">
-        <v>75</v>
-      </c>
-      <c r="O10">
-        <v>75</v>
-      </c>
-      <c r="P10">
-        <v>75</v>
-      </c>
-      <c r="Q10">
-        <v>75</v>
-      </c>
-      <c r="R10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3003,52 +2897,19 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <f t="shared" ref="D11:F11" si="9">C11+1</f>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <f t="shared" si="9"/>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11">
-        <v>40</v>
-      </c>
-      <c r="H11">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-      <c r="J11">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>40</v>
-      </c>
-      <c r="N11">
-        <v>40</v>
-      </c>
-      <c r="O11">
-        <v>40</v>
-      </c>
-      <c r="P11">
-        <v>40</v>
-      </c>
-      <c r="Q11">
-        <v>40</v>
-      </c>
-      <c r="R11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -3059,52 +2920,19 @@
         <v>330</v>
       </c>
       <c r="D12">
-        <v>330</v>
+        <f t="shared" ref="D12:F12" si="10">C12+1</f>
+        <v>331</v>
       </c>
       <c r="E12">
-        <v>330</v>
+        <f t="shared" si="10"/>
+        <v>332</v>
       </c>
       <c r="F12">
-        <v>330</v>
-      </c>
-      <c r="G12">
-        <v>330</v>
-      </c>
-      <c r="H12">
-        <v>330</v>
-      </c>
-      <c r="I12">
-        <v>330</v>
-      </c>
-      <c r="J12">
-        <v>330</v>
-      </c>
-      <c r="K12">
-        <v>330</v>
-      </c>
-      <c r="L12">
-        <v>330</v>
-      </c>
-      <c r="M12">
-        <v>330</v>
-      </c>
-      <c r="N12">
-        <v>330</v>
-      </c>
-      <c r="O12">
-        <v>330</v>
-      </c>
-      <c r="P12">
-        <v>330</v>
-      </c>
-      <c r="Q12">
-        <v>330</v>
-      </c>
-      <c r="R12">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -3115,52 +2943,19 @@
         <v>330</v>
       </c>
       <c r="D13">
-        <v>330</v>
+        <f t="shared" ref="D13:F13" si="11">C13+1</f>
+        <v>331</v>
       </c>
       <c r="E13">
-        <v>330</v>
+        <f t="shared" si="11"/>
+        <v>332</v>
       </c>
       <c r="F13">
-        <v>330</v>
-      </c>
-      <c r="G13">
-        <v>330</v>
-      </c>
-      <c r="H13">
-        <v>330</v>
-      </c>
-      <c r="I13">
-        <v>330</v>
-      </c>
-      <c r="J13">
-        <v>330</v>
-      </c>
-      <c r="K13">
-        <v>330</v>
-      </c>
-      <c r="L13">
-        <v>330</v>
-      </c>
-      <c r="M13">
-        <v>330</v>
-      </c>
-      <c r="N13">
-        <v>330</v>
-      </c>
-      <c r="O13">
-        <v>330</v>
-      </c>
-      <c r="P13">
-        <v>330</v>
-      </c>
-      <c r="Q13">
-        <v>330</v>
-      </c>
-      <c r="R13">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -3171,52 +2966,19 @@
         <v>330</v>
       </c>
       <c r="D14">
-        <v>330</v>
+        <f t="shared" ref="D14:F14" si="12">C14+1</f>
+        <v>331</v>
       </c>
       <c r="E14">
-        <v>330</v>
+        <f t="shared" si="12"/>
+        <v>332</v>
       </c>
       <c r="F14">
-        <v>330</v>
-      </c>
-      <c r="G14">
-        <v>330</v>
-      </c>
-      <c r="H14">
-        <v>330</v>
-      </c>
-      <c r="I14">
-        <v>330</v>
-      </c>
-      <c r="J14">
-        <v>330</v>
-      </c>
-      <c r="K14">
-        <v>330</v>
-      </c>
-      <c r="L14">
-        <v>330</v>
-      </c>
-      <c r="M14">
-        <v>330</v>
-      </c>
-      <c r="N14">
-        <v>330</v>
-      </c>
-      <c r="O14">
-        <v>330</v>
-      </c>
-      <c r="P14">
-        <v>330</v>
-      </c>
-      <c r="Q14">
-        <v>330</v>
-      </c>
-      <c r="R14">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -3227,52 +2989,19 @@
         <v>75</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <f t="shared" ref="D15:F15" si="13">C15+1</f>
+        <v>76</v>
       </c>
       <c r="E15">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>77</v>
       </c>
       <c r="F15">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <v>75</v>
-      </c>
-      <c r="H15">
-        <v>75</v>
-      </c>
-      <c r="I15">
-        <v>75</v>
-      </c>
-      <c r="J15">
-        <v>75</v>
-      </c>
-      <c r="K15">
-        <v>75</v>
-      </c>
-      <c r="L15">
-        <v>75</v>
-      </c>
-      <c r="M15">
-        <v>75</v>
-      </c>
-      <c r="N15">
-        <v>75</v>
-      </c>
-      <c r="O15">
-        <v>75</v>
-      </c>
-      <c r="P15">
-        <v>75</v>
-      </c>
-      <c r="Q15">
-        <v>75</v>
-      </c>
-      <c r="R15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -3283,52 +3012,19 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <f t="shared" ref="D16:F16" si="14">C16+1</f>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <f t="shared" si="14"/>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
-      <c r="I16">
-        <v>50</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>50</v>
-      </c>
-      <c r="L16">
-        <v>50</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="P16">
-        <v>50</v>
-      </c>
-      <c r="Q16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -3339,52 +3035,19 @@
         <v>250</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <f t="shared" ref="D17:F17" si="15">C17+1</f>
+        <v>251</v>
       </c>
       <c r="E17">
-        <v>250</v>
+        <f t="shared" si="15"/>
+        <v>252</v>
       </c>
       <c r="F17">
-        <v>250</v>
-      </c>
-      <c r="G17">
-        <v>250</v>
-      </c>
-      <c r="H17">
-        <v>250</v>
-      </c>
-      <c r="I17">
-        <v>250</v>
-      </c>
-      <c r="J17">
-        <v>250</v>
-      </c>
-      <c r="K17">
-        <v>250</v>
-      </c>
-      <c r="L17">
-        <v>250</v>
-      </c>
-      <c r="M17">
-        <v>250</v>
-      </c>
-      <c r="N17">
-        <v>250</v>
-      </c>
-      <c r="O17">
-        <v>250</v>
-      </c>
-      <c r="P17">
-        <v>250</v>
-      </c>
-      <c r="Q17">
-        <v>250</v>
-      </c>
-      <c r="R17">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -3395,52 +3058,19 @@
         <v>2400</v>
       </c>
       <c r="D18">
-        <v>2400</v>
+        <f t="shared" ref="D18:F18" si="16">C18+1</f>
+        <v>2401</v>
       </c>
       <c r="E18">
-        <v>2400</v>
+        <f t="shared" si="16"/>
+        <v>2402</v>
       </c>
       <c r="F18">
-        <v>2400</v>
-      </c>
-      <c r="G18">
-        <v>2400</v>
-      </c>
-      <c r="H18">
-        <v>2400</v>
-      </c>
-      <c r="I18">
-        <v>2400</v>
-      </c>
-      <c r="J18">
-        <v>2400</v>
-      </c>
-      <c r="K18">
-        <v>2400</v>
-      </c>
-      <c r="L18">
-        <v>2400</v>
-      </c>
-      <c r="M18">
-        <v>2400</v>
-      </c>
-      <c r="N18">
-        <v>2400</v>
-      </c>
-      <c r="O18">
-        <v>2400</v>
-      </c>
-      <c r="P18">
-        <v>2400</v>
-      </c>
-      <c r="Q18">
-        <v>2400</v>
-      </c>
-      <c r="R18">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -3451,52 +3081,19 @@
         <v>2500</v>
       </c>
       <c r="D19">
-        <v>2500</v>
+        <f t="shared" ref="D19:F19" si="17">C19+1</f>
+        <v>2501</v>
       </c>
       <c r="E19">
-        <v>2500</v>
+        <f t="shared" si="17"/>
+        <v>2502</v>
       </c>
       <c r="F19">
-        <v>2500</v>
-      </c>
-      <c r="G19">
-        <v>2500</v>
-      </c>
-      <c r="H19">
-        <v>2500</v>
-      </c>
-      <c r="I19">
-        <v>2500</v>
-      </c>
-      <c r="J19">
-        <v>2500</v>
-      </c>
-      <c r="K19">
-        <v>2500</v>
-      </c>
-      <c r="L19">
-        <v>2500</v>
-      </c>
-      <c r="M19">
-        <v>2500</v>
-      </c>
-      <c r="N19">
-        <v>2500</v>
-      </c>
-      <c r="O19">
-        <v>2500</v>
-      </c>
-      <c r="P19">
-        <v>2500</v>
-      </c>
-      <c r="Q19">
-        <v>2500</v>
-      </c>
-      <c r="R19">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -3507,52 +3104,19 @@
         <v>3200</v>
       </c>
       <c r="D20">
-        <v>3200</v>
+        <f t="shared" ref="D20:F20" si="18">C20+1</f>
+        <v>3201</v>
       </c>
       <c r="E20">
-        <v>3200</v>
+        <f t="shared" si="18"/>
+        <v>3202</v>
       </c>
       <c r="F20">
-        <v>3200</v>
-      </c>
-      <c r="G20">
-        <v>3200</v>
-      </c>
-      <c r="H20">
-        <v>3200</v>
-      </c>
-      <c r="I20">
-        <v>3200</v>
-      </c>
-      <c r="J20">
-        <v>3200</v>
-      </c>
-      <c r="K20">
-        <v>3200</v>
-      </c>
-      <c r="L20">
-        <v>3200</v>
-      </c>
-      <c r="M20">
-        <v>3200</v>
-      </c>
-      <c r="N20">
-        <v>3200</v>
-      </c>
-      <c r="O20">
-        <v>3200</v>
-      </c>
-      <c r="P20">
-        <v>3200</v>
-      </c>
-      <c r="Q20">
-        <v>3200</v>
-      </c>
-      <c r="R20">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -3563,52 +3127,19 @@
         <v>3200</v>
       </c>
       <c r="D21">
-        <v>3200</v>
+        <f t="shared" ref="D21:F21" si="19">C21+1</f>
+        <v>3201</v>
       </c>
       <c r="E21">
-        <v>3200</v>
+        <f t="shared" si="19"/>
+        <v>3202</v>
       </c>
       <c r="F21">
-        <v>3200</v>
-      </c>
-      <c r="G21">
-        <v>3200</v>
-      </c>
-      <c r="H21">
-        <v>3200</v>
-      </c>
-      <c r="I21">
-        <v>3200</v>
-      </c>
-      <c r="J21">
-        <v>3200</v>
-      </c>
-      <c r="K21">
-        <v>3200</v>
-      </c>
-      <c r="L21">
-        <v>3200</v>
-      </c>
-      <c r="M21">
-        <v>3200</v>
-      </c>
-      <c r="N21">
-        <v>3200</v>
-      </c>
-      <c r="O21">
-        <v>3200</v>
-      </c>
-      <c r="P21">
-        <v>3200</v>
-      </c>
-      <c r="Q21">
-        <v>3200</v>
-      </c>
-      <c r="R21">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -3619,52 +3150,19 @@
         <v>3200</v>
       </c>
       <c r="D22">
-        <v>3200</v>
+        <f t="shared" ref="D22:F22" si="20">C22+1</f>
+        <v>3201</v>
       </c>
       <c r="E22">
-        <v>3200</v>
+        <f t="shared" si="20"/>
+        <v>3202</v>
       </c>
       <c r="F22">
-        <v>3200</v>
-      </c>
-      <c r="G22">
-        <v>3200</v>
-      </c>
-      <c r="H22">
-        <v>3200</v>
-      </c>
-      <c r="I22">
-        <v>3200</v>
-      </c>
-      <c r="J22">
-        <v>3200</v>
-      </c>
-      <c r="K22">
-        <v>3200</v>
-      </c>
-      <c r="L22">
-        <v>3200</v>
-      </c>
-      <c r="M22">
-        <v>3200</v>
-      </c>
-      <c r="N22">
-        <v>3200</v>
-      </c>
-      <c r="O22">
-        <v>3200</v>
-      </c>
-      <c r="P22">
-        <v>3200</v>
-      </c>
-      <c r="Q22">
-        <v>3200</v>
-      </c>
-      <c r="R22">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -3675,52 +3173,19 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <f t="shared" ref="D23:F23" si="21">C23+1</f>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <f t="shared" si="21"/>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>28</v>
-      </c>
-      <c r="G23">
-        <v>28</v>
-      </c>
-      <c r="H23">
-        <v>28</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>28</v>
-      </c>
-      <c r="K23">
-        <v>28</v>
-      </c>
-      <c r="L23">
-        <v>28</v>
-      </c>
-      <c r="M23">
-        <v>28</v>
-      </c>
-      <c r="N23">
-        <v>28</v>
-      </c>
-      <c r="O23">
-        <v>28</v>
-      </c>
-      <c r="P23">
-        <v>28</v>
-      </c>
-      <c r="Q23">
-        <v>28</v>
-      </c>
-      <c r="R23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -3731,52 +3196,19 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <f t="shared" ref="D24:F24" si="22">C24+1</f>
+        <v>51</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <f t="shared" si="22"/>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
-      <c r="I24">
-        <v>50</v>
-      </c>
-      <c r="J24">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-      <c r="M24">
-        <v>50</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
-        <v>50</v>
-      </c>
-      <c r="P24">
-        <v>50</v>
-      </c>
-      <c r="Q24">
-        <v>50</v>
-      </c>
-      <c r="R24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -3787,52 +3219,19 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <f t="shared" ref="D25:F25" si="23">C25+1</f>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <f t="shared" si="23"/>
+        <v>34</v>
       </c>
       <c r="F25">
-        <v>32</v>
-      </c>
-      <c r="G25">
-        <v>32</v>
-      </c>
-      <c r="H25">
-        <v>32</v>
-      </c>
-      <c r="I25">
-        <v>32</v>
-      </c>
-      <c r="J25">
-        <v>32</v>
-      </c>
-      <c r="K25">
-        <v>32</v>
-      </c>
-      <c r="L25">
-        <v>32</v>
-      </c>
-      <c r="M25">
-        <v>32</v>
-      </c>
-      <c r="N25">
-        <v>32</v>
-      </c>
-      <c r="O25">
-        <v>32</v>
-      </c>
-      <c r="P25">
-        <v>32</v>
-      </c>
-      <c r="Q25">
-        <v>32</v>
-      </c>
-      <c r="R25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -3843,49 +3242,16 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <f t="shared" ref="D26:F26" si="24">C26+1</f>
+        <v>31</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <f t="shared" si="24"/>
+        <v>32</v>
       </c>
       <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26">
-        <v>30</v>
-      </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
-      <c r="I26">
-        <v>30</v>
-      </c>
-      <c r="J26">
-        <v>30</v>
-      </c>
-      <c r="K26">
-        <v>30</v>
-      </c>
-      <c r="L26">
-        <v>30</v>
-      </c>
-      <c r="M26">
-        <v>30</v>
-      </c>
-      <c r="N26">
-        <v>30</v>
-      </c>
-      <c r="O26">
-        <v>30</v>
-      </c>
-      <c r="P26">
-        <v>30</v>
-      </c>
-      <c r="Q26">
-        <v>30</v>
-      </c>
-      <c r="R26">
-        <v>30</v>
+        <f t="shared" si="24"/>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3895,20 +3261,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4EACD5-3DDB-4A06-AA6C-C8F9511D9F67}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="7.44140625" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="8" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -3916,55 +3283,19 @@
         <v>53</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D1" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E1" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="F1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -3975,52 +3306,19 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <f>C2+2</f>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <f t="shared" ref="E2:F2" si="0">D2+2</f>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>20</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>20</v>
-      </c>
-      <c r="Q2">
-        <v>20</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -4031,52 +3329,19 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <f t="shared" ref="D3:F3" si="1">C3+2</f>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>18</v>
-      </c>
-      <c r="O3">
-        <v>18</v>
-      </c>
-      <c r="P3">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <v>18</v>
-      </c>
-      <c r="R3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -4087,52 +3352,19 @@
         <v>390</v>
       </c>
       <c r="D4">
-        <v>390</v>
+        <f t="shared" ref="D4:F4" si="2">C4+2</f>
+        <v>392</v>
       </c>
       <c r="E4">
-        <v>390</v>
+        <f t="shared" si="2"/>
+        <v>394</v>
       </c>
       <c r="F4">
-        <v>390</v>
-      </c>
-      <c r="G4">
-        <v>390</v>
-      </c>
-      <c r="H4">
-        <v>390</v>
-      </c>
-      <c r="I4">
-        <v>390</v>
-      </c>
-      <c r="J4">
-        <v>390</v>
-      </c>
-      <c r="K4">
-        <v>390</v>
-      </c>
-      <c r="L4">
-        <v>390</v>
-      </c>
-      <c r="M4">
-        <v>390</v>
-      </c>
-      <c r="N4">
-        <v>390</v>
-      </c>
-      <c r="O4">
-        <v>390</v>
-      </c>
-      <c r="P4">
-        <v>390</v>
-      </c>
-      <c r="Q4">
-        <v>390</v>
-      </c>
-      <c r="R4">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -4143,52 +3375,19 @@
         <v>390</v>
       </c>
       <c r="D5">
-        <v>390</v>
+        <f t="shared" ref="D5:F5" si="3">C5+2</f>
+        <v>392</v>
       </c>
       <c r="E5">
-        <v>390</v>
+        <f t="shared" si="3"/>
+        <v>394</v>
       </c>
       <c r="F5">
-        <v>390</v>
-      </c>
-      <c r="G5">
-        <v>390</v>
-      </c>
-      <c r="H5">
-        <v>390</v>
-      </c>
-      <c r="I5">
-        <v>390</v>
-      </c>
-      <c r="J5">
-        <v>390</v>
-      </c>
-      <c r="K5">
-        <v>390</v>
-      </c>
-      <c r="L5">
-        <v>390</v>
-      </c>
-      <c r="M5">
-        <v>390</v>
-      </c>
-      <c r="N5">
-        <v>390</v>
-      </c>
-      <c r="O5">
-        <v>390</v>
-      </c>
-      <c r="P5">
-        <v>390</v>
-      </c>
-      <c r="Q5">
-        <v>390</v>
-      </c>
-      <c r="R5">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -4199,52 +3398,19 @@
         <v>390</v>
       </c>
       <c r="D6">
-        <v>390</v>
+        <f t="shared" ref="D6:F6" si="4">C6+2</f>
+        <v>392</v>
       </c>
       <c r="E6">
-        <v>390</v>
+        <f t="shared" si="4"/>
+        <v>394</v>
       </c>
       <c r="F6">
-        <v>390</v>
-      </c>
-      <c r="G6">
-        <v>390</v>
-      </c>
-      <c r="H6">
-        <v>390</v>
-      </c>
-      <c r="I6">
-        <v>390</v>
-      </c>
-      <c r="J6">
-        <v>390</v>
-      </c>
-      <c r="K6">
-        <v>390</v>
-      </c>
-      <c r="L6">
-        <v>390</v>
-      </c>
-      <c r="M6">
-        <v>390</v>
-      </c>
-      <c r="N6">
-        <v>390</v>
-      </c>
-      <c r="O6">
-        <v>390</v>
-      </c>
-      <c r="P6">
-        <v>390</v>
-      </c>
-      <c r="Q6">
-        <v>390</v>
-      </c>
-      <c r="R6">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -4255,52 +3421,19 @@
         <v>3000</v>
       </c>
       <c r="D7">
-        <v>3000</v>
+        <f t="shared" ref="D7:F7" si="5">C7+2</f>
+        <v>3002</v>
       </c>
       <c r="E7">
-        <v>3000</v>
+        <f t="shared" si="5"/>
+        <v>3004</v>
       </c>
       <c r="F7">
-        <v>3000</v>
-      </c>
-      <c r="G7">
-        <v>3000</v>
-      </c>
-      <c r="H7">
-        <v>3000</v>
-      </c>
-      <c r="I7">
-        <v>3000</v>
-      </c>
-      <c r="J7">
-        <v>3000</v>
-      </c>
-      <c r="K7">
-        <v>3000</v>
-      </c>
-      <c r="L7">
-        <v>3000</v>
-      </c>
-      <c r="M7">
-        <v>3000</v>
-      </c>
-      <c r="N7">
-        <v>3000</v>
-      </c>
-      <c r="O7">
-        <v>3000</v>
-      </c>
-      <c r="P7">
-        <v>3000</v>
-      </c>
-      <c r="Q7">
-        <v>3000</v>
-      </c>
-      <c r="R7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -4311,52 +3444,19 @@
         <v>3000</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <f t="shared" ref="D8:F8" si="6">C8+2</f>
+        <v>3002</v>
       </c>
       <c r="E8">
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3004</v>
       </c>
       <c r="F8">
-        <v>3000</v>
-      </c>
-      <c r="G8">
-        <v>3000</v>
-      </c>
-      <c r="H8">
-        <v>3000</v>
-      </c>
-      <c r="I8">
-        <v>3000</v>
-      </c>
-      <c r="J8">
-        <v>3000</v>
-      </c>
-      <c r="K8">
-        <v>3000</v>
-      </c>
-      <c r="L8">
-        <v>3000</v>
-      </c>
-      <c r="M8">
-        <v>3000</v>
-      </c>
-      <c r="N8">
-        <v>3000</v>
-      </c>
-      <c r="O8">
-        <v>3000</v>
-      </c>
-      <c r="P8">
-        <v>3000</v>
-      </c>
-      <c r="Q8">
-        <v>3000</v>
-      </c>
-      <c r="R8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -4367,52 +3467,19 @@
         <v>3000</v>
       </c>
       <c r="D9">
-        <v>3000</v>
+        <f t="shared" ref="D9:F9" si="7">C9+2</f>
+        <v>3002</v>
       </c>
       <c r="E9">
-        <v>3000</v>
+        <f t="shared" si="7"/>
+        <v>3004</v>
       </c>
       <c r="F9">
-        <v>3000</v>
-      </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="H9">
-        <v>3000</v>
-      </c>
-      <c r="I9">
-        <v>3000</v>
-      </c>
-      <c r="J9">
-        <v>3000</v>
-      </c>
-      <c r="K9">
-        <v>3000</v>
-      </c>
-      <c r="L9">
-        <v>3000</v>
-      </c>
-      <c r="M9">
-        <v>3000</v>
-      </c>
-      <c r="N9">
-        <v>3000</v>
-      </c>
-      <c r="O9">
-        <v>3000</v>
-      </c>
-      <c r="P9">
-        <v>3000</v>
-      </c>
-      <c r="Q9">
-        <v>3000</v>
-      </c>
-      <c r="R9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -4423,52 +3490,19 @@
         <v>75</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <f t="shared" ref="D10:F10" si="8">C10+2</f>
+        <v>77</v>
       </c>
       <c r="E10">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>75</v>
-      </c>
-      <c r="G10">
-        <v>75</v>
-      </c>
-      <c r="H10">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>75</v>
-      </c>
-      <c r="J10">
-        <v>75</v>
-      </c>
-      <c r="K10">
-        <v>75</v>
-      </c>
-      <c r="L10">
-        <v>75</v>
-      </c>
-      <c r="M10">
-        <v>75</v>
-      </c>
-      <c r="N10">
-        <v>75</v>
-      </c>
-      <c r="O10">
-        <v>75</v>
-      </c>
-      <c r="P10">
-        <v>75</v>
-      </c>
-      <c r="Q10">
-        <v>75</v>
-      </c>
-      <c r="R10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4479,52 +3513,19 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <f t="shared" ref="D11:F11" si="9">C11+2</f>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <f t="shared" si="9"/>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11">
-        <v>40</v>
-      </c>
-      <c r="H11">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-      <c r="J11">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>40</v>
-      </c>
-      <c r="N11">
-        <v>40</v>
-      </c>
-      <c r="O11">
-        <v>40</v>
-      </c>
-      <c r="P11">
-        <v>40</v>
-      </c>
-      <c r="Q11">
-        <v>40</v>
-      </c>
-      <c r="R11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -4535,52 +3536,19 @@
         <v>330</v>
       </c>
       <c r="D12">
-        <v>330</v>
+        <f t="shared" ref="D12:F12" si="10">C12+2</f>
+        <v>332</v>
       </c>
       <c r="E12">
-        <v>330</v>
+        <f t="shared" si="10"/>
+        <v>334</v>
       </c>
       <c r="F12">
-        <v>330</v>
-      </c>
-      <c r="G12">
-        <v>330</v>
-      </c>
-      <c r="H12">
-        <v>330</v>
-      </c>
-      <c r="I12">
-        <v>330</v>
-      </c>
-      <c r="J12">
-        <v>330</v>
-      </c>
-      <c r="K12">
-        <v>330</v>
-      </c>
-      <c r="L12">
-        <v>330</v>
-      </c>
-      <c r="M12">
-        <v>330</v>
-      </c>
-      <c r="N12">
-        <v>330</v>
-      </c>
-      <c r="O12">
-        <v>330</v>
-      </c>
-      <c r="P12">
-        <v>330</v>
-      </c>
-      <c r="Q12">
-        <v>330</v>
-      </c>
-      <c r="R12">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -4591,52 +3559,19 @@
         <v>330</v>
       </c>
       <c r="D13">
-        <v>330</v>
+        <f t="shared" ref="D13:F13" si="11">C13+2</f>
+        <v>332</v>
       </c>
       <c r="E13">
-        <v>330</v>
+        <f t="shared" si="11"/>
+        <v>334</v>
       </c>
       <c r="F13">
-        <v>330</v>
-      </c>
-      <c r="G13">
-        <v>330</v>
-      </c>
-      <c r="H13">
-        <v>330</v>
-      </c>
-      <c r="I13">
-        <v>330</v>
-      </c>
-      <c r="J13">
-        <v>330</v>
-      </c>
-      <c r="K13">
-        <v>330</v>
-      </c>
-      <c r="L13">
-        <v>330</v>
-      </c>
-      <c r="M13">
-        <v>330</v>
-      </c>
-      <c r="N13">
-        <v>330</v>
-      </c>
-      <c r="O13">
-        <v>330</v>
-      </c>
-      <c r="P13">
-        <v>330</v>
-      </c>
-      <c r="Q13">
-        <v>330</v>
-      </c>
-      <c r="R13">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -4647,52 +3582,19 @@
         <v>330</v>
       </c>
       <c r="D14">
-        <v>330</v>
+        <f t="shared" ref="D14:F14" si="12">C14+2</f>
+        <v>332</v>
       </c>
       <c r="E14">
-        <v>330</v>
+        <f t="shared" si="12"/>
+        <v>334</v>
       </c>
       <c r="F14">
-        <v>330</v>
-      </c>
-      <c r="G14">
-        <v>330</v>
-      </c>
-      <c r="H14">
-        <v>330</v>
-      </c>
-      <c r="I14">
-        <v>330</v>
-      </c>
-      <c r="J14">
-        <v>330</v>
-      </c>
-      <c r="K14">
-        <v>330</v>
-      </c>
-      <c r="L14">
-        <v>330</v>
-      </c>
-      <c r="M14">
-        <v>330</v>
-      </c>
-      <c r="N14">
-        <v>330</v>
-      </c>
-      <c r="O14">
-        <v>330</v>
-      </c>
-      <c r="P14">
-        <v>330</v>
-      </c>
-      <c r="Q14">
-        <v>330</v>
-      </c>
-      <c r="R14">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4703,52 +3605,19 @@
         <v>75</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <f t="shared" ref="D15:F15" si="13">C15+2</f>
+        <v>77</v>
       </c>
       <c r="E15">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="F15">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <v>75</v>
-      </c>
-      <c r="H15">
-        <v>75</v>
-      </c>
-      <c r="I15">
-        <v>75</v>
-      </c>
-      <c r="J15">
-        <v>75</v>
-      </c>
-      <c r="K15">
-        <v>75</v>
-      </c>
-      <c r="L15">
-        <v>75</v>
-      </c>
-      <c r="M15">
-        <v>75</v>
-      </c>
-      <c r="N15">
-        <v>75</v>
-      </c>
-      <c r="O15">
-        <v>75</v>
-      </c>
-      <c r="P15">
-        <v>75</v>
-      </c>
-      <c r="Q15">
-        <v>75</v>
-      </c>
-      <c r="R15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -4759,52 +3628,19 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <f t="shared" ref="D16:F16" si="14">C16+2</f>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <f t="shared" si="14"/>
+        <v>54</v>
       </c>
       <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
-      <c r="I16">
-        <v>50</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>50</v>
-      </c>
-      <c r="L16">
-        <v>50</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16">
-        <v>50</v>
-      </c>
-      <c r="P16">
-        <v>50</v>
-      </c>
-      <c r="Q16">
-        <v>50</v>
-      </c>
-      <c r="R16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -4815,52 +3651,19 @@
         <v>250</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <f t="shared" ref="D17:F17" si="15">C17+2</f>
+        <v>252</v>
       </c>
       <c r="E17">
-        <v>250</v>
+        <f t="shared" si="15"/>
+        <v>254</v>
       </c>
       <c r="F17">
-        <v>250</v>
-      </c>
-      <c r="G17">
-        <v>250</v>
-      </c>
-      <c r="H17">
-        <v>250</v>
-      </c>
-      <c r="I17">
-        <v>250</v>
-      </c>
-      <c r="J17">
-        <v>250</v>
-      </c>
-      <c r="K17">
-        <v>250</v>
-      </c>
-      <c r="L17">
-        <v>250</v>
-      </c>
-      <c r="M17">
-        <v>250</v>
-      </c>
-      <c r="N17">
-        <v>250</v>
-      </c>
-      <c r="O17">
-        <v>250</v>
-      </c>
-      <c r="P17">
-        <v>250</v>
-      </c>
-      <c r="Q17">
-        <v>250</v>
-      </c>
-      <c r="R17">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -4871,52 +3674,19 @@
         <v>2400</v>
       </c>
       <c r="D18">
-        <v>2400</v>
+        <f t="shared" ref="D18:F18" si="16">C18+2</f>
+        <v>2402</v>
       </c>
       <c r="E18">
-        <v>2400</v>
+        <f t="shared" si="16"/>
+        <v>2404</v>
       </c>
       <c r="F18">
-        <v>2400</v>
-      </c>
-      <c r="G18">
-        <v>2400</v>
-      </c>
-      <c r="H18">
-        <v>2400</v>
-      </c>
-      <c r="I18">
-        <v>2400</v>
-      </c>
-      <c r="J18">
-        <v>2400</v>
-      </c>
-      <c r="K18">
-        <v>2400</v>
-      </c>
-      <c r="L18">
-        <v>2400</v>
-      </c>
-      <c r="M18">
-        <v>2400</v>
-      </c>
-      <c r="N18">
-        <v>2400</v>
-      </c>
-      <c r="O18">
-        <v>2400</v>
-      </c>
-      <c r="P18">
-        <v>2400</v>
-      </c>
-      <c r="Q18">
-        <v>2400</v>
-      </c>
-      <c r="R18">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -4927,52 +3697,19 @@
         <v>2500</v>
       </c>
       <c r="D19">
-        <v>2500</v>
+        <f t="shared" ref="D19:F19" si="17">C19+2</f>
+        <v>2502</v>
       </c>
       <c r="E19">
-        <v>2500</v>
+        <f t="shared" si="17"/>
+        <v>2504</v>
       </c>
       <c r="F19">
-        <v>2500</v>
-      </c>
-      <c r="G19">
-        <v>2500</v>
-      </c>
-      <c r="H19">
-        <v>2500</v>
-      </c>
-      <c r="I19">
-        <v>2500</v>
-      </c>
-      <c r="J19">
-        <v>2500</v>
-      </c>
-      <c r="K19">
-        <v>2500</v>
-      </c>
-      <c r="L19">
-        <v>2500</v>
-      </c>
-      <c r="M19">
-        <v>2500</v>
-      </c>
-      <c r="N19">
-        <v>2500</v>
-      </c>
-      <c r="O19">
-        <v>2500</v>
-      </c>
-      <c r="P19">
-        <v>2500</v>
-      </c>
-      <c r="Q19">
-        <v>2500</v>
-      </c>
-      <c r="R19">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -4983,52 +3720,19 @@
         <v>3200</v>
       </c>
       <c r="D20">
-        <v>3200</v>
+        <f t="shared" ref="D20:F20" si="18">C20+2</f>
+        <v>3202</v>
       </c>
       <c r="E20">
-        <v>3200</v>
+        <f t="shared" si="18"/>
+        <v>3204</v>
       </c>
       <c r="F20">
-        <v>3200</v>
-      </c>
-      <c r="G20">
-        <v>3200</v>
-      </c>
-      <c r="H20">
-        <v>3200</v>
-      </c>
-      <c r="I20">
-        <v>3200</v>
-      </c>
-      <c r="J20">
-        <v>3200</v>
-      </c>
-      <c r="K20">
-        <v>3200</v>
-      </c>
-      <c r="L20">
-        <v>3200</v>
-      </c>
-      <c r="M20">
-        <v>3200</v>
-      </c>
-      <c r="N20">
-        <v>3200</v>
-      </c>
-      <c r="O20">
-        <v>3200</v>
-      </c>
-      <c r="P20">
-        <v>3200</v>
-      </c>
-      <c r="Q20">
-        <v>3200</v>
-      </c>
-      <c r="R20">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -5039,52 +3743,19 @@
         <v>3200</v>
       </c>
       <c r="D21">
-        <v>3200</v>
+        <f t="shared" ref="D21:F21" si="19">C21+2</f>
+        <v>3202</v>
       </c>
       <c r="E21">
-        <v>3200</v>
+        <f t="shared" si="19"/>
+        <v>3204</v>
       </c>
       <c r="F21">
-        <v>3200</v>
-      </c>
-      <c r="G21">
-        <v>3200</v>
-      </c>
-      <c r="H21">
-        <v>3200</v>
-      </c>
-      <c r="I21">
-        <v>3200</v>
-      </c>
-      <c r="J21">
-        <v>3200</v>
-      </c>
-      <c r="K21">
-        <v>3200</v>
-      </c>
-      <c r="L21">
-        <v>3200</v>
-      </c>
-      <c r="M21">
-        <v>3200</v>
-      </c>
-      <c r="N21">
-        <v>3200</v>
-      </c>
-      <c r="O21">
-        <v>3200</v>
-      </c>
-      <c r="P21">
-        <v>3200</v>
-      </c>
-      <c r="Q21">
-        <v>3200</v>
-      </c>
-      <c r="R21">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -5095,52 +3766,19 @@
         <v>3200</v>
       </c>
       <c r="D22">
-        <v>3200</v>
+        <f t="shared" ref="D22:F22" si="20">C22+2</f>
+        <v>3202</v>
       </c>
       <c r="E22">
-        <v>3200</v>
+        <f t="shared" si="20"/>
+        <v>3204</v>
       </c>
       <c r="F22">
-        <v>3200</v>
-      </c>
-      <c r="G22">
-        <v>3200</v>
-      </c>
-      <c r="H22">
-        <v>3200</v>
-      </c>
-      <c r="I22">
-        <v>3200</v>
-      </c>
-      <c r="J22">
-        <v>3200</v>
-      </c>
-      <c r="K22">
-        <v>3200</v>
-      </c>
-      <c r="L22">
-        <v>3200</v>
-      </c>
-      <c r="M22">
-        <v>3200</v>
-      </c>
-      <c r="N22">
-        <v>3200</v>
-      </c>
-      <c r="O22">
-        <v>3200</v>
-      </c>
-      <c r="P22">
-        <v>3200</v>
-      </c>
-      <c r="Q22">
-        <v>3200</v>
-      </c>
-      <c r="R22">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -5151,52 +3789,19 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <f t="shared" ref="D23:F23" si="21">C23+2</f>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <f t="shared" si="21"/>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>28</v>
-      </c>
-      <c r="G23">
-        <v>28</v>
-      </c>
-      <c r="H23">
-        <v>28</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>28</v>
-      </c>
-      <c r="K23">
-        <v>28</v>
-      </c>
-      <c r="L23">
-        <v>28</v>
-      </c>
-      <c r="M23">
-        <v>28</v>
-      </c>
-      <c r="N23">
-        <v>28</v>
-      </c>
-      <c r="O23">
-        <v>28</v>
-      </c>
-      <c r="P23">
-        <v>28</v>
-      </c>
-      <c r="Q23">
-        <v>28</v>
-      </c>
-      <c r="R23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -5207,52 +3812,19 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <f t="shared" ref="D24:F24" si="22">C24+2</f>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <f t="shared" si="22"/>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
-      <c r="I24">
-        <v>50</v>
-      </c>
-      <c r="J24">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-      <c r="M24">
-        <v>50</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24">
-        <v>50</v>
-      </c>
-      <c r="P24">
-        <v>50</v>
-      </c>
-      <c r="Q24">
-        <v>50</v>
-      </c>
-      <c r="R24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -5263,52 +3835,19 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <f t="shared" ref="D25:F25" si="23">C25+2</f>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <f t="shared" si="23"/>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>32</v>
-      </c>
-      <c r="G25">
-        <v>32</v>
-      </c>
-      <c r="H25">
-        <v>32</v>
-      </c>
-      <c r="I25">
-        <v>32</v>
-      </c>
-      <c r="J25">
-        <v>32</v>
-      </c>
-      <c r="K25">
-        <v>32</v>
-      </c>
-      <c r="L25">
-        <v>32</v>
-      </c>
-      <c r="M25">
-        <v>32</v>
-      </c>
-      <c r="N25">
-        <v>32</v>
-      </c>
-      <c r="O25">
-        <v>32</v>
-      </c>
-      <c r="P25">
-        <v>32</v>
-      </c>
-      <c r="Q25">
-        <v>32</v>
-      </c>
-      <c r="R25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -5319,49 +3858,16 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <f t="shared" ref="D26:F26" si="24">C26+2</f>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <f t="shared" si="24"/>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26">
-        <v>30</v>
-      </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
-      <c r="I26">
-        <v>30</v>
-      </c>
-      <c r="J26">
-        <v>30</v>
-      </c>
-      <c r="K26">
-        <v>30</v>
-      </c>
-      <c r="L26">
-        <v>30</v>
-      </c>
-      <c r="M26">
-        <v>30</v>
-      </c>
-      <c r="N26">
-        <v>30</v>
-      </c>
-      <c r="O26">
-        <v>30</v>
-      </c>
-      <c r="P26">
-        <v>30</v>
-      </c>
-      <c r="Q26">
-        <v>30</v>
-      </c>
-      <c r="R26">
-        <v>30</v>
+        <f t="shared" si="24"/>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5373,8 +3879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ED7805-F9C9-44B5-8A0B-A5E579593692}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5514,10 +4020,10 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7">
         <v>1</v>
       </c>
       <c r="T2">
@@ -5594,10 +4100,10 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7">
         <v>1</v>
       </c>
       <c r="T3">
@@ -5674,11 +4180,11 @@
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
+      <c r="R4" s="8">
+        <v>3</v>
+      </c>
+      <c r="S4" s="8">
+        <v>3</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -5754,10 +4260,10 @@
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
         <v>1</v>
       </c>
       <c r="T5">
@@ -5834,10 +4340,10 @@
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
         <v>1</v>
       </c>
       <c r="T6">
@@ -5914,10 +4420,10 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
         <v>1</v>
       </c>
       <c r="T7">
@@ -5994,10 +4500,10 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
+      <c r="R8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
         <v>1</v>
       </c>
       <c r="T8">
@@ -6074,10 +4580,10 @@
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
         <v>1</v>
       </c>
       <c r="T9">
@@ -6154,10 +4660,10 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
+      <c r="R10" s="7">
+        <v>1</v>
+      </c>
+      <c r="S10" s="7">
         <v>1</v>
       </c>
       <c r="T10">
@@ -6234,10 +4740,10 @@
       <c r="Q11">
         <v>1</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
+      <c r="R11" s="7">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7">
         <v>1</v>
       </c>
       <c r="T11">
@@ -6314,10 +4820,10 @@
       <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
         <v>1</v>
       </c>
       <c r="T12">
@@ -6394,10 +4900,10 @@
       <c r="Q13">
         <v>1</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
+      <c r="R13" s="7">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
         <v>1</v>
       </c>
       <c r="T13">
@@ -6474,11 +4980,11 @@
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14" s="4">
-        <v>2</v>
-      </c>
-      <c r="S14" s="4">
-        <v>2</v>
+      <c r="R14" s="8">
+        <v>3</v>
+      </c>
+      <c r="S14" s="8">
+        <v>3</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -6554,10 +5060,10 @@
       <c r="Q15">
         <v>1</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="7">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
         <v>1</v>
       </c>
       <c r="T15">
@@ -6634,10 +5140,10 @@
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
+      <c r="R16" s="7">
+        <v>1</v>
+      </c>
+      <c r="S16" s="7">
         <v>1</v>
       </c>
       <c r="T16">
@@ -6714,10 +5220,10 @@
       <c r="Q17">
         <v>1</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
+      <c r="R17" s="7">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7">
         <v>1</v>
       </c>
       <c r="T17">
@@ -6794,10 +5300,10 @@
       <c r="Q18">
         <v>1</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
+      <c r="R18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7">
         <v>1</v>
       </c>
       <c r="T18">
@@ -6874,10 +5380,10 @@
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
         <v>1</v>
       </c>
       <c r="T19">
@@ -6954,11 +5460,11 @@
       <c r="Q20">
         <v>1</v>
       </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
+      <c r="R20" s="8">
+        <v>3</v>
+      </c>
+      <c r="S20" s="8">
+        <v>3</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -7034,10 +5540,10 @@
       <c r="Q21">
         <v>1</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
+      <c r="R21" s="7">
+        <v>1</v>
+      </c>
+      <c r="S21" s="7">
         <v>1</v>
       </c>
       <c r="T21">
@@ -7114,10 +5620,10 @@
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
+      <c r="R22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
         <v>1</v>
       </c>
       <c r="T22">
@@ -7194,10 +5700,10 @@
       <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
         <v>1</v>
       </c>
       <c r="T23">
@@ -7274,10 +5780,10 @@
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
+      <c r="R24" s="7">
+        <v>1</v>
+      </c>
+      <c r="S24" s="7">
         <v>1</v>
       </c>
       <c r="T24">
@@ -7354,10 +5860,10 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
+      <c r="R25" s="7">
+        <v>1</v>
+      </c>
+      <c r="S25" s="7">
         <v>1</v>
       </c>
       <c r="T25">

--- a/generator/masterdata.xlsx
+++ b/generator/masterdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A5227-8F87-4D59-BBC5-AE111F4F1A33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0C8E78-508A-4567-85D7-BDB5E2821B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="years" sheetId="7" r:id="rId1"/>
@@ -1192,9 +1192,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2028</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2029</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2031</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2032</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2033</v>
       </c>
@@ -1366,15 +1366,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="23" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="8.90625" customWidth="1"/>
+    <col min="19" max="23" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>2188.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>2188.6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>2188.6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>260.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>2001.3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2084.5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>2334.4</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>2334.4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>2334.4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -3241,12 +3241,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3871,17 +3871,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -4019,7 +4021,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -4249,7 +4251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4295,7 +4297,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -4364,7 +4366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>101</v>
@@ -4387,7 +4389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -4410,7 +4412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -4471,15 +4473,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -4513,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -4564,7 +4566,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -4717,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -4934,12 +4936,12 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5179,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -6219,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -6699,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -6779,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -6859,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -6949,18 +6951,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A3F685-C533-4E8F-A116-A133A9E8530E}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>131</v>
@@ -6976,7 +6978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>134</v>
       </c>
@@ -6991,7 +6993,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>136</v>
       </c>
@@ -7006,7 +7008,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>138</v>
       </c>
@@ -7021,7 +7023,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>140</v>
       </c>
@@ -7036,7 +7038,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>142</v>
       </c>
@@ -7059,7 +7061,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>145</v>
       </c>
@@ -7082,7 +7084,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7099,7 +7101,7 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M10" s="10" t="s">
         <v>149</v>
       </c>
@@ -7111,7 +7113,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M11" s="10" t="s">
         <v>151</v>
       </c>
@@ -7123,7 +7125,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M12" s="10" t="s">
         <v>153</v>
       </c>
@@ -7135,7 +7137,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M13" s="10" t="s">
         <v>155</v>
       </c>
@@ -7147,7 +7149,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M14" s="10" t="s">
         <v>157</v>
       </c>
@@ -7159,7 +7161,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M15" s="10" t="s">
         <v>159</v>
       </c>
@@ -7171,8 +7173,8 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:19" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>161</v>
       </c>
@@ -7195,7 +7197,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>167</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>169</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>171</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>172</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>172</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
         <v>174</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="M24" s="13">
         <v>2018</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D25" s="18" t="s">
         <v>175</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C26" s="19">
         <v>43831</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C27" s="19">
         <v>44199</v>
       </c>
@@ -7506,7 +7508,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C28" s="19">
         <v>44563</v>
       </c>
@@ -7527,7 +7529,7 @@
       </c>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C29" s="19">
         <v>44928</v>
       </c>
@@ -7559,14 +7561,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -7764,7 +7766,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>721.8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>721.8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -7977,7 +7979,7 @@
         <v>721.8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -8048,7 +8050,7 @@
         <v>5551.8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>5551.8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -8190,7 +8192,7 @@
         <v>5551.8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -8403,7 +8405,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -8474,7 +8476,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -8545,7 +8547,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>462.7</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>4441.3999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -8900,7 +8902,7 @@
         <v>4626.3999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>5922.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>5922.1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -9113,7 +9115,7 @@
         <v>5922.1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -9184,7 +9186,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -9255,7 +9257,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -9408,15 +9410,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="21" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="21" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -9479,7 +9481,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -9889,7 +9891,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>2051.8000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -10053,7 +10055,7 @@
         <v>2051.8000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>2051.8000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -10217,7 +10219,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -10299,7 +10301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -10381,7 +10383,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -10463,7 +10465,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -10545,7 +10547,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -10627,7 +10629,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -10791,7 +10793,7 @@
         <v>244.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -10873,7 +10875,7 @@
         <v>1876.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -10955,7 +10957,7 @@
         <v>1954.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>2188.5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -11119,7 +11121,7 @@
         <v>2188.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -11201,7 +11203,7 @@
         <v>2188.5</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -11283,7 +11285,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -11365,7 +11367,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -11540,15 +11542,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="23" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="8.90625" customWidth="1"/>
+    <col min="19" max="23" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11604,7 +11606,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -11676,7 +11678,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>769.9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>769.9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -11964,7 +11966,7 @@
         <v>769.9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>5921.9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -12108,7 +12110,7 @@
         <v>5921.9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -12180,7 +12182,7 @@
         <v>5921.9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -12252,7 +12254,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -12324,7 +12326,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -12396,7 +12398,7 @@
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -12468,7 +12470,7 @@
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -12540,7 +12542,7 @@
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -12612,7 +12614,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -12684,7 +12686,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -12756,7 +12758,7 @@
         <v>493.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>4737.5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -12900,7 +12902,7 @@
         <v>4934.8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -12972,7 +12974,7 @@
         <v>6316.9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -13044,7 +13046,7 @@
         <v>6316.9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -13116,7 +13118,7 @@
         <v>6316.9</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -13188,7 +13190,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -13260,7 +13262,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -13332,7 +13334,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>

--- a/generator/masterdata.xlsx
+++ b/generator/masterdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0C8E78-508A-4567-85D7-BDB5E2821B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127388DF-7D94-436E-A17A-2803C3AE9E28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="years" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="175">
   <si>
     <t>Rocky Mountain Bikes</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Off Road Helmet</t>
   </si>
   <si>
-    <t>Off Road Bike Computer</t>
-  </si>
-  <si>
     <t>Men's Off Road Bike</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
   </si>
   <si>
     <t>OHMT1000</t>
-  </si>
-  <si>
-    <t>ORBC1000</t>
   </si>
   <si>
     <t>ORMN1000</t>
@@ -1196,10 +1190,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1362,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A382FF-297A-4BB3-B572-31F1189F5309}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1426,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -1504,7 +1498,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1576,7 +1570,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -1648,7 +1642,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1720,7 +1714,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -1792,7 +1786,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -1864,7 +1858,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -1936,7 +1930,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -2080,7 +2074,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -2152,7 +2146,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -2224,7 +2218,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -2296,7 +2290,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -2368,7 +2362,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -2440,7 +2434,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -2512,223 +2506,223 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
       </c>
       <c r="C17">
         <f>ROUND('costs EUR'!F17*Model!$D$26,1)</f>
-        <v>140</v>
+        <v>1075.4000000000001</v>
       </c>
       <c r="D17">
         <f>ROUND('costs EUR'!G17*Model!$D$27,1)</f>
-        <v>154.5</v>
+        <v>1186.8</v>
       </c>
       <c r="E17">
         <f>ROUND('costs EUR'!H17*Model!$D$28,1)</f>
-        <v>150.69999999999999</v>
+        <v>1157.3</v>
       </c>
       <c r="F17">
         <f>ROUND('costs EUR'!I17*Model!$D$29,1)</f>
-        <v>154.1</v>
+        <v>1183.7</v>
       </c>
       <c r="G17">
         <f>ROUND('costs EUR'!J17*Model!$D$29,1)</f>
-        <v>160.30000000000001</v>
+        <v>1231</v>
       </c>
       <c r="H17">
         <f>ROUND('costs EUR'!K17*Model!$D$29,1)</f>
-        <v>166.7</v>
+        <v>1280.3</v>
       </c>
       <c r="I17">
         <f>ROUND('costs EUR'!L17*Model!$D$29,1)</f>
-        <v>168.4</v>
+        <v>1293.8</v>
       </c>
       <c r="J17">
         <f>ROUND('costs EUR'!M17*Model!$D$29,1)</f>
-        <v>176.6</v>
+        <v>1357</v>
       </c>
       <c r="K17">
         <f>ROUND('costs EUR'!N17*Model!$D$29,1)</f>
-        <v>192.6</v>
+        <v>1479.9</v>
       </c>
       <c r="L17">
         <f>ROUND('costs EUR'!O17*Model!$D$29,1)</f>
-        <v>200.3</v>
+        <v>1539.1</v>
       </c>
       <c r="M17">
         <f>ROUND('costs EUR'!P17*Model!$D$29,1)</f>
-        <v>208.3</v>
+        <v>1600.6</v>
       </c>
       <c r="N17">
         <f>ROUND('costs EUR'!Q17*Model!$D$29,1)</f>
-        <v>210.5</v>
+        <v>1617.4</v>
       </c>
       <c r="O17">
         <f>ROUND('costs EUR'!R17*Model!$D$29,1)</f>
-        <v>220.8</v>
+        <v>1696.5</v>
       </c>
       <c r="P17">
         <f>ROUND('costs EUR'!S17*Model!$D$29,1)</f>
-        <v>240.9</v>
+        <v>1850.2</v>
       </c>
       <c r="Q17">
         <f>ROUND('costs EUR'!T17*Model!$D$29,1)</f>
-        <v>250.5</v>
+        <v>1924.3</v>
       </c>
       <c r="R17">
         <f>ROUND('costs EUR'!U17*Model!$D$29,1)</f>
-        <v>260.5</v>
+        <v>2001.3</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18">
         <f>ROUND('costs EUR'!F18*Model!$D$26,1)</f>
-        <v>1075.4000000000001</v>
+        <v>1120.2</v>
       </c>
       <c r="D18">
         <f>ROUND('costs EUR'!G18*Model!$D$27,1)</f>
-        <v>1186.8</v>
+        <v>1236.3</v>
       </c>
       <c r="E18">
         <f>ROUND('costs EUR'!H18*Model!$D$28,1)</f>
-        <v>1157.3</v>
+        <v>1205.5</v>
       </c>
       <c r="F18">
         <f>ROUND('costs EUR'!I18*Model!$D$29,1)</f>
-        <v>1183.7</v>
+        <v>1233</v>
       </c>
       <c r="G18">
         <f>ROUND('costs EUR'!J18*Model!$D$29,1)</f>
-        <v>1231</v>
+        <v>1282.2</v>
       </c>
       <c r="H18">
         <f>ROUND('costs EUR'!K18*Model!$D$29,1)</f>
-        <v>1280.3</v>
+        <v>1333.5</v>
       </c>
       <c r="I18">
         <f>ROUND('costs EUR'!L18*Model!$D$29,1)</f>
-        <v>1293.8</v>
+        <v>1347.5</v>
       </c>
       <c r="J18">
         <f>ROUND('costs EUR'!M18*Model!$D$29,1)</f>
-        <v>1357</v>
+        <v>1413.4</v>
       </c>
       <c r="K18">
         <f>ROUND('costs EUR'!N18*Model!$D$29,1)</f>
-        <v>1479.9</v>
+        <v>1541.4</v>
       </c>
       <c r="L18">
         <f>ROUND('costs EUR'!O18*Model!$D$29,1)</f>
-        <v>1539.1</v>
+        <v>1603.1</v>
       </c>
       <c r="M18">
         <f>ROUND('costs EUR'!P18*Model!$D$29,1)</f>
-        <v>1600.6</v>
+        <v>1667.2</v>
       </c>
       <c r="N18">
         <f>ROUND('costs EUR'!Q18*Model!$D$29,1)</f>
-        <v>1617.4</v>
+        <v>1684.6</v>
       </c>
       <c r="O18">
         <f>ROUND('costs EUR'!R18*Model!$D$29,1)</f>
-        <v>1696.5</v>
+        <v>1767</v>
       </c>
       <c r="P18">
         <f>ROUND('costs EUR'!S18*Model!$D$29,1)</f>
-        <v>1850.2</v>
+        <v>1927.1</v>
       </c>
       <c r="Q18">
         <f>ROUND('costs EUR'!T18*Model!$D$29,1)</f>
-        <v>1924.3</v>
+        <v>2004.3</v>
       </c>
       <c r="R18">
         <f>ROUND('costs EUR'!U18*Model!$D$29,1)</f>
-        <v>2001.3</v>
+        <v>2084.5</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
       </c>
       <c r="C19">
         <f>ROUND('costs EUR'!F19*Model!$D$26,1)</f>
-        <v>1120.2</v>
+        <v>1254.5999999999999</v>
       </c>
       <c r="D19">
         <f>ROUND('costs EUR'!G19*Model!$D$27,1)</f>
-        <v>1236.3</v>
+        <v>1384.6</v>
       </c>
       <c r="E19">
         <f>ROUND('costs EUR'!H19*Model!$D$28,1)</f>
-        <v>1205.5</v>
+        <v>1350.2</v>
       </c>
       <c r="F19">
         <f>ROUND('costs EUR'!I19*Model!$D$29,1)</f>
-        <v>1233</v>
+        <v>1380.9</v>
       </c>
       <c r="G19">
         <f>ROUND('costs EUR'!J19*Model!$D$29,1)</f>
-        <v>1282.2</v>
+        <v>1436.2</v>
       </c>
       <c r="H19">
         <f>ROUND('costs EUR'!K19*Model!$D$29,1)</f>
-        <v>1333.5</v>
+        <v>1493.6</v>
       </c>
       <c r="I19">
         <f>ROUND('costs EUR'!L19*Model!$D$29,1)</f>
-        <v>1347.5</v>
+        <v>1509.2</v>
       </c>
       <c r="J19">
         <f>ROUND('costs EUR'!M19*Model!$D$29,1)</f>
-        <v>1413.4</v>
+        <v>1583</v>
       </c>
       <c r="K19">
         <f>ROUND('costs EUR'!N19*Model!$D$29,1)</f>
-        <v>1541.4</v>
+        <v>1726.4</v>
       </c>
       <c r="L19">
         <f>ROUND('costs EUR'!O19*Model!$D$29,1)</f>
-        <v>1603.1</v>
+        <v>1795.4</v>
       </c>
       <c r="M19">
         <f>ROUND('costs EUR'!P19*Model!$D$29,1)</f>
-        <v>1667.2</v>
+        <v>1867.2</v>
       </c>
       <c r="N19">
         <f>ROUND('costs EUR'!Q19*Model!$D$29,1)</f>
-        <v>1684.6</v>
+        <v>1886.7</v>
       </c>
       <c r="O19">
         <f>ROUND('costs EUR'!R19*Model!$D$29,1)</f>
-        <v>1767</v>
+        <v>1979</v>
       </c>
       <c r="P19">
         <f>ROUND('costs EUR'!S19*Model!$D$29,1)</f>
-        <v>1927.1</v>
+        <v>2158.3000000000002</v>
       </c>
       <c r="Q19">
         <f>ROUND('costs EUR'!T19*Model!$D$29,1)</f>
-        <v>2004.3</v>
+        <v>2244.6</v>
       </c>
       <c r="R19">
         <f>ROUND('costs EUR'!U19*Model!$D$29,1)</f>
-        <v>2084.5</v>
+        <v>2334.4</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -2800,7 +2794,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -2872,146 +2866,146 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>79</v>
       </c>
       <c r="C22">
         <f>ROUND('costs EUR'!F22*Model!$D$26,1)</f>
-        <v>1254.5999999999999</v>
+        <v>15.7</v>
       </c>
       <c r="D22">
         <f>ROUND('costs EUR'!G22*Model!$D$27,1)</f>
-        <v>1384.6</v>
+        <v>17.3</v>
       </c>
       <c r="E22">
         <f>ROUND('costs EUR'!H22*Model!$D$28,1)</f>
-        <v>1350.2</v>
+        <v>16.8</v>
       </c>
       <c r="F22">
         <f>ROUND('costs EUR'!I22*Model!$D$29,1)</f>
-        <v>1380.9</v>
+        <v>17.2</v>
       </c>
       <c r="G22">
         <f>ROUND('costs EUR'!J22*Model!$D$29,1)</f>
-        <v>1436.2</v>
+        <v>17.8</v>
       </c>
       <c r="H22">
         <f>ROUND('costs EUR'!K22*Model!$D$29,1)</f>
-        <v>1493.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I22">
         <f>ROUND('costs EUR'!L22*Model!$D$29,1)</f>
-        <v>1509.2</v>
+        <v>18.8</v>
       </c>
       <c r="J22">
         <f>ROUND('costs EUR'!M22*Model!$D$29,1)</f>
-        <v>1583</v>
+        <v>19.7</v>
       </c>
       <c r="K22">
         <f>ROUND('costs EUR'!N22*Model!$D$29,1)</f>
-        <v>1726.4</v>
+        <v>21.5</v>
       </c>
       <c r="L22">
         <f>ROUND('costs EUR'!O22*Model!$D$29,1)</f>
-        <v>1795.4</v>
+        <v>22.4</v>
       </c>
       <c r="M22">
         <f>ROUND('costs EUR'!P22*Model!$D$29,1)</f>
-        <v>1867.2</v>
+        <v>23.3</v>
       </c>
       <c r="N22">
         <f>ROUND('costs EUR'!Q22*Model!$D$29,1)</f>
-        <v>1886.7</v>
+        <v>23.5</v>
       </c>
       <c r="O22">
         <f>ROUND('costs EUR'!R22*Model!$D$29,1)</f>
-        <v>1979</v>
+        <v>24.6</v>
       </c>
       <c r="P22">
         <f>ROUND('costs EUR'!S22*Model!$D$29,1)</f>
-        <v>2158.3000000000002</v>
+        <v>26.9</v>
       </c>
       <c r="Q22">
         <f>ROUND('costs EUR'!T22*Model!$D$29,1)</f>
-        <v>2244.6</v>
+        <v>27.9</v>
       </c>
       <c r="R22">
         <f>ROUND('costs EUR'!U22*Model!$D$29,1)</f>
-        <v>2334.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
       <c r="C23">
         <f>ROUND('costs EUR'!F23*Model!$D$26,1)</f>
-        <v>15.7</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <f>ROUND('costs EUR'!G23*Model!$D$27,1)</f>
-        <v>17.3</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <f>ROUND('costs EUR'!H23*Model!$D$28,1)</f>
-        <v>16.8</v>
+        <v>30.1</v>
       </c>
       <c r="F23">
         <f>ROUND('costs EUR'!I23*Model!$D$29,1)</f>
-        <v>17.2</v>
+        <v>30.8</v>
       </c>
       <c r="G23">
         <f>ROUND('costs EUR'!J23*Model!$D$29,1)</f>
-        <v>17.8</v>
+        <v>32.1</v>
       </c>
       <c r="H23">
         <f>ROUND('costs EUR'!K23*Model!$D$29,1)</f>
-        <v>18.600000000000001</v>
+        <v>33.4</v>
       </c>
       <c r="I23">
         <f>ROUND('costs EUR'!L23*Model!$D$29,1)</f>
-        <v>18.8</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="J23">
         <f>ROUND('costs EUR'!M23*Model!$D$29,1)</f>
-        <v>19.7</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="K23">
         <f>ROUND('costs EUR'!N23*Model!$D$29,1)</f>
-        <v>21.5</v>
+        <v>38.5</v>
       </c>
       <c r="L23">
         <f>ROUND('costs EUR'!O23*Model!$D$29,1)</f>
-        <v>22.4</v>
+        <v>40</v>
       </c>
       <c r="M23">
         <f>ROUND('costs EUR'!P23*Model!$D$29,1)</f>
-        <v>23.3</v>
+        <v>41.6</v>
       </c>
       <c r="N23">
         <f>ROUND('costs EUR'!Q23*Model!$D$29,1)</f>
-        <v>23.5</v>
+        <v>42</v>
       </c>
       <c r="O23">
         <f>ROUND('costs EUR'!R23*Model!$D$29,1)</f>
-        <v>24.6</v>
+        <v>44.1</v>
       </c>
       <c r="P23">
         <f>ROUND('costs EUR'!S23*Model!$D$29,1)</f>
-        <v>26.9</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <f>ROUND('costs EUR'!T23*Model!$D$29,1)</f>
-        <v>27.9</v>
+        <v>49.9</v>
       </c>
       <c r="R23">
         <f>ROUND('costs EUR'!U23*Model!$D$29,1)</f>
-        <v>29</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -3023,67 +3017,67 @@
       </c>
       <c r="C24">
         <f>ROUND('costs EUR'!F24*Model!$D$26,1)</f>
-        <v>28</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D24">
         <f>ROUND('costs EUR'!G24*Model!$D$27,1)</f>
-        <v>31</v>
+        <v>19.8</v>
       </c>
       <c r="E24">
         <f>ROUND('costs EUR'!H24*Model!$D$28,1)</f>
-        <v>30.1</v>
+        <v>19.3</v>
       </c>
       <c r="F24">
         <f>ROUND('costs EUR'!I24*Model!$D$29,1)</f>
-        <v>30.8</v>
+        <v>19.7</v>
       </c>
       <c r="G24">
         <f>ROUND('costs EUR'!J24*Model!$D$29,1)</f>
-        <v>32.1</v>
+        <v>20.5</v>
       </c>
       <c r="H24">
         <f>ROUND('costs EUR'!K24*Model!$D$29,1)</f>
-        <v>33.4</v>
+        <v>21.3</v>
       </c>
       <c r="I24">
         <f>ROUND('costs EUR'!L24*Model!$D$29,1)</f>
-        <v>33.700000000000003</v>
+        <v>21.5</v>
       </c>
       <c r="J24">
         <f>ROUND('costs EUR'!M24*Model!$D$29,1)</f>
-        <v>35.299999999999997</v>
+        <v>22.6</v>
       </c>
       <c r="K24">
         <f>ROUND('costs EUR'!N24*Model!$D$29,1)</f>
-        <v>38.5</v>
+        <v>24.6</v>
       </c>
       <c r="L24">
         <f>ROUND('costs EUR'!O24*Model!$D$29,1)</f>
-        <v>40</v>
+        <v>25.6</v>
       </c>
       <c r="M24">
         <f>ROUND('costs EUR'!P24*Model!$D$29,1)</f>
-        <v>41.6</v>
+        <v>26.7</v>
       </c>
       <c r="N24">
         <f>ROUND('costs EUR'!Q24*Model!$D$29,1)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="O24">
         <f>ROUND('costs EUR'!R24*Model!$D$29,1)</f>
-        <v>44.1</v>
+        <v>28.3</v>
       </c>
       <c r="P24">
         <f>ROUND('costs EUR'!S24*Model!$D$29,1)</f>
-        <v>48</v>
+        <v>30.8</v>
       </c>
       <c r="Q24">
         <f>ROUND('costs EUR'!T24*Model!$D$29,1)</f>
-        <v>49.9</v>
+        <v>32.1</v>
       </c>
       <c r="R24">
         <f>ROUND('costs EUR'!U24*Model!$D$29,1)</f>
-        <v>51.9</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -3095,138 +3089,66 @@
       </c>
       <c r="C25">
         <f>ROUND('costs EUR'!F25*Model!$D$26,1)</f>
-        <v>17.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="D25">
         <f>ROUND('costs EUR'!G25*Model!$D$27,1)</f>
-        <v>19.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E25">
         <f>ROUND('costs EUR'!H25*Model!$D$28,1)</f>
-        <v>19.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F25">
         <f>ROUND('costs EUR'!I25*Model!$D$29,1)</f>
-        <v>19.7</v>
+        <v>18.5</v>
       </c>
       <c r="G25">
         <f>ROUND('costs EUR'!J25*Model!$D$29,1)</f>
-        <v>20.5</v>
+        <v>19.2</v>
       </c>
       <c r="H25">
         <f>ROUND('costs EUR'!K25*Model!$D$29,1)</f>
-        <v>21.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I25">
         <f>ROUND('costs EUR'!L25*Model!$D$29,1)</f>
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="J25">
         <f>ROUND('costs EUR'!M25*Model!$D$29,1)</f>
-        <v>22.6</v>
+        <v>21.1</v>
       </c>
       <c r="K25">
         <f>ROUND('costs EUR'!N25*Model!$D$29,1)</f>
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="L25">
         <f>ROUND('costs EUR'!O25*Model!$D$29,1)</f>
-        <v>25.6</v>
+        <v>24</v>
       </c>
       <c r="M25">
         <f>ROUND('costs EUR'!P25*Model!$D$29,1)</f>
-        <v>26.7</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <f>ROUND('costs EUR'!Q25*Model!$D$29,1)</f>
-        <v>27</v>
+        <v>25.2</v>
       </c>
       <c r="O25">
         <f>ROUND('costs EUR'!R25*Model!$D$29,1)</f>
-        <v>28.3</v>
+        <v>26.5</v>
       </c>
       <c r="P25">
         <f>ROUND('costs EUR'!S25*Model!$D$29,1)</f>
-        <v>30.8</v>
+        <v>28.8</v>
       </c>
       <c r="Q25">
         <f>ROUND('costs EUR'!T25*Model!$D$29,1)</f>
-        <v>32.1</v>
+        <v>30</v>
       </c>
       <c r="R25">
         <f>ROUND('costs EUR'!U25*Model!$D$29,1)</f>
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26">
-        <f>ROUND('costs EUR'!F26*Model!$D$26,1)</f>
-        <v>16.8</v>
-      </c>
-      <c r="D26">
-        <f>ROUND('costs EUR'!G26*Model!$D$27,1)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E26">
-        <f>ROUND('costs EUR'!H26*Model!$D$28,1)</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F26">
-        <f>ROUND('costs EUR'!I26*Model!$D$29,1)</f>
-        <v>18.5</v>
-      </c>
-      <c r="G26">
-        <f>ROUND('costs EUR'!J26*Model!$D$29,1)</f>
-        <v>19.2</v>
-      </c>
-      <c r="H26">
-        <f>ROUND('costs EUR'!K26*Model!$D$29,1)</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I26">
-        <f>ROUND('costs EUR'!L26*Model!$D$29,1)</f>
-        <v>20.2</v>
-      </c>
-      <c r="J26">
-        <f>ROUND('costs EUR'!M26*Model!$D$29,1)</f>
-        <v>21.1</v>
-      </c>
-      <c r="K26">
-        <f>ROUND('costs EUR'!N26*Model!$D$29,1)</f>
-        <v>23</v>
-      </c>
-      <c r="L26">
-        <f>ROUND('costs EUR'!O26*Model!$D$29,1)</f>
-        <v>24</v>
-      </c>
-      <c r="M26">
-        <f>ROUND('costs EUR'!P26*Model!$D$29,1)</f>
-        <v>25</v>
-      </c>
-      <c r="N26">
-        <f>ROUND('costs EUR'!Q26*Model!$D$29,1)</f>
-        <v>25.2</v>
-      </c>
-      <c r="O26">
-        <f>ROUND('costs EUR'!R26*Model!$D$29,1)</f>
-        <v>26.5</v>
-      </c>
-      <c r="P26">
-        <f>ROUND('costs EUR'!S26*Model!$D$29,1)</f>
-        <v>28.8</v>
-      </c>
-      <c r="Q26">
-        <f>ROUND('costs EUR'!T26*Model!$D$29,1)</f>
-        <v>30</v>
-      </c>
-      <c r="R26">
-        <f>ROUND('costs EUR'!U26*Model!$D$29,1)</f>
         <v>31.1</v>
       </c>
     </row>
@@ -3248,16 +3170,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -3687,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40">
         <v>30</v>
@@ -3833,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>17</v>
@@ -3871,9 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3885,25 +3805,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3920,13 +3840,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3943,13 +3863,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3966,13 +3886,13 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3989,13 +3909,13 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4012,13 +3932,13 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4035,13 +3955,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4058,13 +3978,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -4081,13 +4001,13 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4104,13 +4024,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -4127,13 +4047,13 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4150,13 +4070,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -4173,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4196,13 +4116,13 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -4219,13 +4139,13 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4242,13 +4162,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -4265,13 +4185,13 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -4288,13 +4208,13 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -4311,13 +4231,13 @@
         <v>15</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -4334,13 +4254,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -4357,13 +4277,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -4380,13 +4300,13 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -4403,13 +4323,13 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -4426,13 +4346,13 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -4449,13 +4369,13 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4389,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2E5201-7E8F-412B-9CA7-DAC430378AA1}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4495,12 +4415,12 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -4517,7 +4437,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -4534,7 +4454,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -4551,7 +4471,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -4568,7 +4488,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -4585,7 +4505,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -4602,7 +4522,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -4619,7 +4539,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -4636,7 +4556,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -4653,7 +4573,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -4670,7 +4590,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -4687,7 +4607,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -4704,7 +4624,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -4721,7 +4641,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -4738,7 +4658,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -4755,10 +4675,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -4767,12 +4687,12 @@
         <v>74</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -4784,12 +4704,12 @@
         <v>75</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -4806,7 +4726,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -4818,12 +4738,12 @@
         <v>77</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -4835,32 +4755,32 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -4869,7 +4789,7 @@
         <v>80</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -4877,7 +4797,7 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -4903,23 +4823,6 @@
         <v>82</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26">
         <v>1</v>
       </c>
     </row>
@@ -4930,86 +4833,84 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ED7805-F9C9-44B5-8A0B-A5E579593692}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>102</v>
@@ -5017,11 +4918,8 @@
       <c r="Y1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -5070,13 +4968,13 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="7">
         <v>1</v>
       </c>
       <c r="R2" s="7">
         <v>1</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
@@ -5097,11 +4995,8 @@
       <c r="Y2">
         <v>1</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5150,13 +5045,13 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>1</v>
       </c>
       <c r="R3" s="7">
         <v>1</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
@@ -5177,11 +5072,8 @@
       <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5227,17 +5119,17 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
+      <c r="P4" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>3</v>
       </c>
       <c r="R4" s="8">
         <v>3</v>
       </c>
-      <c r="S4" s="8">
-        <v>3</v>
+      <c r="S4">
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -5257,11 +5149,8 @@
       <c r="Y4">
         <v>1</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5310,13 +5199,13 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="7">
         <v>1</v>
       </c>
       <c r="R5" s="7">
         <v>1</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
@@ -5337,11 +5226,8 @@
       <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -5390,13 +5276,13 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="7">
         <v>1</v>
       </c>
       <c r="R6" s="7">
         <v>1</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
@@ -5417,11 +5303,8 @@
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5470,13 +5353,13 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="7">
         <v>1</v>
       </c>
       <c r="R7" s="7">
         <v>1</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7">
         <v>1</v>
       </c>
       <c r="T7">
@@ -5497,11 +5380,8 @@
       <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -5550,13 +5430,13 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="7">
         <v>1</v>
       </c>
       <c r="R8" s="7">
         <v>1</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
@@ -5577,11 +5457,8 @@
       <c r="Y8">
         <v>1</v>
       </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -5630,13 +5507,13 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="7">
         <v>1</v>
       </c>
       <c r="R9" s="7">
         <v>1</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
@@ -5657,11 +5534,8 @@
       <c r="Y9">
         <v>1</v>
       </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -5710,13 +5584,13 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="7">
         <v>1</v>
       </c>
       <c r="R10" s="7">
         <v>1</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
@@ -5737,11 +5611,8 @@
       <c r="Y10">
         <v>1</v>
       </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -5790,13 +5661,13 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="7">
         <v>1</v>
       </c>
       <c r="R11" s="7">
         <v>1</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
@@ -5817,11 +5688,8 @@
       <c r="Y11">
         <v>1</v>
       </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -5870,13 +5738,13 @@
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="7">
         <v>1</v>
       </c>
       <c r="R12" s="7">
         <v>1</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
@@ -5897,11 +5765,8 @@
       <c r="Y12">
         <v>1</v>
       </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -5950,13 +5815,13 @@
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="7">
         <v>1</v>
       </c>
       <c r="R13" s="7">
         <v>1</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
@@ -5977,11 +5842,8 @@
       <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -6027,17 +5889,17 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
+      <c r="P14" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>3</v>
       </c>
       <c r="R14" s="8">
         <v>3</v>
       </c>
-      <c r="S14" s="8">
-        <v>3</v>
+      <c r="S14">
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -6057,11 +5919,8 @@
       <c r="Y14">
         <v>1</v>
       </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -6110,13 +5969,13 @@
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="7">
         <v>1</v>
       </c>
       <c r="R15" s="7">
         <v>1</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
@@ -6137,11 +5996,8 @@
       <c r="Y15">
         <v>1</v>
       </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -6190,13 +6046,13 @@
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="7">
         <v>1</v>
       </c>
       <c r="R16" s="7">
         <v>1</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
@@ -6217,11 +6073,8 @@
       <c r="Y16">
         <v>1</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -6270,13 +6123,13 @@
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="7">
         <v>1</v>
       </c>
       <c r="R17" s="7">
         <v>1</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
@@ -6297,11 +6150,8 @@
       <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -6350,13 +6200,13 @@
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="7">
         <v>1</v>
       </c>
       <c r="R18" s="7">
         <v>1</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
@@ -6377,11 +6227,8 @@
       <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6430,13 +6277,13 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="7">
         <v>1</v>
       </c>
       <c r="R19" s="7">
         <v>1</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
@@ -6457,11 +6304,8 @@
       <c r="Y19">
         <v>1</v>
       </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -6507,17 +6351,17 @@
       <c r="O20">
         <v>1</v>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
+      <c r="P20" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>3</v>
       </c>
       <c r="R20" s="8">
         <v>3</v>
       </c>
-      <c r="S20" s="8">
-        <v>3</v>
+      <c r="S20">
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -6537,11 +6381,8 @@
       <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -6590,13 +6431,13 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="7">
         <v>1</v>
       </c>
       <c r="R21" s="7">
         <v>1</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
@@ -6617,11 +6458,8 @@
       <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -6670,13 +6508,13 @@
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="7">
         <v>1</v>
       </c>
       <c r="R22" s="7">
         <v>1</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
@@ -6697,11 +6535,8 @@
       <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -6750,13 +6585,13 @@
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="7">
         <v>1</v>
       </c>
       <c r="R23" s="7">
         <v>1</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
@@ -6777,11 +6612,8 @@
       <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -6830,13 +6662,13 @@
       <c r="P24">
         <v>1</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="7">
         <v>1</v>
       </c>
       <c r="R24" s="7">
         <v>1</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
@@ -6857,11 +6689,8 @@
       <c r="Y24">
         <v>1</v>
       </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -6910,13 +6739,13 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="7">
         <v>1</v>
       </c>
       <c r="R25" s="7">
         <v>1</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
@@ -6935,9 +6764,6 @@
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
         <v>1</v>
       </c>
     </row>
@@ -6951,43 +6777,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A3F685-C533-4E8F-A116-A133A9E8530E}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="M2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="9">
         <v>0.65</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -6995,14 +6819,14 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="9">
         <v>0.6</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -7010,14 +6834,14 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="9">
         <v>0.62</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -7025,14 +6849,14 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="9">
         <v>0.68</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -7040,20 +6864,20 @@
     </row>
     <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="9">
         <v>0.7</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="M7" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
@@ -7063,20 +6887,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="9">
         <v>0.5</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="M8" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -7089,7 +6913,7 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -7103,10 +6927,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M10" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -7115,10 +6939,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -7127,10 +6951,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M12" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -7139,10 +6963,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M13" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -7151,10 +6975,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M14" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -7163,10 +6987,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M15" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -7176,33 +7000,33 @@
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:19" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="R17" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M18" s="13">
         <v>2012</v>
@@ -7225,10 +7049,10 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" s="17">
         <v>105.2</v>
@@ -7258,10 +7082,10 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="17">
         <v>106.3</v>
@@ -7295,10 +7119,10 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" s="17">
         <v>111.5</v>
@@ -7332,10 +7156,10 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="17">
         <v>121.6</v>
@@ -7369,7 +7193,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E23">
         <v>1.04</v>
@@ -7423,7 +7247,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D25" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M25" s="13">
         <v>2019</v>
@@ -7557,7 +7381,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AB1CF5-6676-423D-82A3-EC0C38B94B75}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7626,7 +7450,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -7697,7 +7521,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -7768,7 +7592,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -7839,7 +7663,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -7910,7 +7734,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -7981,7 +7805,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -8052,7 +7876,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -8123,7 +7947,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -8194,7 +8018,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -8265,7 +8089,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -8336,7 +8160,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -8407,7 +8231,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -8478,7 +8302,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -8549,7 +8373,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -8620,7 +8444,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -8691,220 +8515,220 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
       </c>
       <c r="C17">
-        <v>250</v>
+        <v>2400</v>
       </c>
       <c r="D17">
         <f>ROUND(C17*Model!$E$20,1)</f>
-        <v>252.6</v>
+        <v>2425.1</v>
       </c>
       <c r="E17">
         <f>ROUND(D17*Model!$E$21,1)</f>
-        <v>265</v>
+        <v>2543.6999999999998</v>
       </c>
       <c r="F17">
         <f>ROUND(E17*Model!$E$22,1)</f>
-        <v>289</v>
+        <v>2774.1</v>
       </c>
       <c r="G17">
         <f>ROUND(F17*Model!$E$23,1)</f>
-        <v>300.60000000000002</v>
+        <v>2885.1</v>
       </c>
       <c r="H17">
         <f>ROUND(G17*Model!$E$23,1)</f>
-        <v>312.60000000000002</v>
+        <v>3000.5</v>
       </c>
       <c r="I17">
         <f>ROUND(H17*Model!$E$23,1)</f>
-        <v>325.10000000000002</v>
+        <v>3120.5</v>
       </c>
       <c r="J17">
         <f>ROUND(I17*Model!$E$23,1)</f>
-        <v>338.1</v>
+        <v>3245.3</v>
       </c>
       <c r="K17">
         <f>ROUND(J17*Model!$E$23,1)</f>
-        <v>351.6</v>
+        <v>3375.1</v>
       </c>
       <c r="L17">
         <f>ROUND(K17*Model!$E$23,1)</f>
-        <v>365.7</v>
+        <v>3510.1</v>
       </c>
       <c r="M17">
         <f>ROUND(L17*Model!$E$23,1)</f>
-        <v>380.3</v>
+        <v>3650.5</v>
       </c>
       <c r="N17">
         <f>ROUND(M17*Model!$E$23,1)</f>
-        <v>395.5</v>
+        <v>3796.5</v>
       </c>
       <c r="O17">
         <f>ROUND(N17*Model!$E$23,1)</f>
-        <v>411.3</v>
+        <v>3948.4</v>
       </c>
       <c r="P17">
         <f>ROUND(O17*Model!$E$23,1)</f>
-        <v>427.8</v>
+        <v>4106.3</v>
       </c>
       <c r="Q17">
         <f>ROUND(P17*Model!$E$23,1)</f>
-        <v>444.9</v>
+        <v>4270.6000000000004</v>
       </c>
       <c r="R17">
         <f>ROUND(Q17*Model!$E$23,1)</f>
-        <v>462.7</v>
+        <v>4441.3999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="D18">
         <f>ROUND(C18*Model!$E$20,1)</f>
-        <v>2425.1</v>
+        <v>2526.1</v>
       </c>
       <c r="E18">
         <f>ROUND(D18*Model!$E$21,1)</f>
-        <v>2543.6999999999998</v>
+        <v>2649.7</v>
       </c>
       <c r="F18">
         <f>ROUND(E18*Model!$E$22,1)</f>
-        <v>2774.1</v>
+        <v>2889.7</v>
       </c>
       <c r="G18">
         <f>ROUND(F18*Model!$E$23,1)</f>
-        <v>2885.1</v>
+        <v>3005.3</v>
       </c>
       <c r="H18">
         <f>ROUND(G18*Model!$E$23,1)</f>
-        <v>3000.5</v>
+        <v>3125.5</v>
       </c>
       <c r="I18">
         <f>ROUND(H18*Model!$E$23,1)</f>
-        <v>3120.5</v>
+        <v>3250.5</v>
       </c>
       <c r="J18">
         <f>ROUND(I18*Model!$E$23,1)</f>
-        <v>3245.3</v>
+        <v>3380.5</v>
       </c>
       <c r="K18">
         <f>ROUND(J18*Model!$E$23,1)</f>
-        <v>3375.1</v>
+        <v>3515.7</v>
       </c>
       <c r="L18">
         <f>ROUND(K18*Model!$E$23,1)</f>
-        <v>3510.1</v>
+        <v>3656.3</v>
       </c>
       <c r="M18">
         <f>ROUND(L18*Model!$E$23,1)</f>
-        <v>3650.5</v>
+        <v>3802.6</v>
       </c>
       <c r="N18">
         <f>ROUND(M18*Model!$E$23,1)</f>
-        <v>3796.5</v>
+        <v>3954.7</v>
       </c>
       <c r="O18">
         <f>ROUND(N18*Model!$E$23,1)</f>
-        <v>3948.4</v>
+        <v>4112.8999999999996</v>
       </c>
       <c r="P18">
         <f>ROUND(O18*Model!$E$23,1)</f>
-        <v>4106.3</v>
+        <v>4277.3999999999996</v>
       </c>
       <c r="Q18">
         <f>ROUND(P18*Model!$E$23,1)</f>
-        <v>4270.6000000000004</v>
+        <v>4448.5</v>
       </c>
       <c r="R18">
         <f>ROUND(Q18*Model!$E$23,1)</f>
-        <v>4441.3999999999996</v>
+        <v>4626.3999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
       </c>
       <c r="C19">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="D19">
         <f>ROUND(C19*Model!$E$20,1)</f>
-        <v>2526.1</v>
+        <v>3233.5</v>
       </c>
       <c r="E19">
         <f>ROUND(D19*Model!$E$21,1)</f>
-        <v>2649.7</v>
+        <v>3391.7</v>
       </c>
       <c r="F19">
         <f>ROUND(E19*Model!$E$22,1)</f>
-        <v>2889.7</v>
+        <v>3698.9</v>
       </c>
       <c r="G19">
         <f>ROUND(F19*Model!$E$23,1)</f>
-        <v>3005.3</v>
+        <v>3846.9</v>
       </c>
       <c r="H19">
         <f>ROUND(G19*Model!$E$23,1)</f>
-        <v>3125.5</v>
+        <v>4000.8</v>
       </c>
       <c r="I19">
         <f>ROUND(H19*Model!$E$23,1)</f>
-        <v>3250.5</v>
+        <v>4160.8</v>
       </c>
       <c r="J19">
         <f>ROUND(I19*Model!$E$23,1)</f>
-        <v>3380.5</v>
+        <v>4327.2</v>
       </c>
       <c r="K19">
         <f>ROUND(J19*Model!$E$23,1)</f>
-        <v>3515.7</v>
+        <v>4500.3</v>
       </c>
       <c r="L19">
         <f>ROUND(K19*Model!$E$23,1)</f>
-        <v>3656.3</v>
+        <v>4680.3</v>
       </c>
       <c r="M19">
         <f>ROUND(L19*Model!$E$23,1)</f>
-        <v>3802.6</v>
+        <v>4867.5</v>
       </c>
       <c r="N19">
         <f>ROUND(M19*Model!$E$23,1)</f>
-        <v>3954.7</v>
+        <v>5062.2</v>
       </c>
       <c r="O19">
         <f>ROUND(N19*Model!$E$23,1)</f>
-        <v>4112.8999999999996</v>
+        <v>5264.7</v>
       </c>
       <c r="P19">
         <f>ROUND(O19*Model!$E$23,1)</f>
-        <v>4277.3999999999996</v>
+        <v>5475.3</v>
       </c>
       <c r="Q19">
         <f>ROUND(P19*Model!$E$23,1)</f>
-        <v>4448.5</v>
+        <v>5694.3</v>
       </c>
       <c r="R19">
         <f>ROUND(Q19*Model!$E$23,1)</f>
-        <v>4626.3999999999996</v>
+        <v>5922.1</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8975,7 +8799,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -9046,144 +8870,144 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>79</v>
       </c>
       <c r="C22">
-        <v>3200</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <f>ROUND(C22*Model!$E$20,1)</f>
-        <v>3233.5</v>
+        <v>28.3</v>
       </c>
       <c r="E22">
         <f>ROUND(D22*Model!$E$21,1)</f>
-        <v>3391.7</v>
+        <v>29.7</v>
       </c>
       <c r="F22">
         <f>ROUND(E22*Model!$E$22,1)</f>
-        <v>3698.9</v>
+        <v>32.4</v>
       </c>
       <c r="G22">
         <f>ROUND(F22*Model!$E$23,1)</f>
-        <v>3846.9</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="H22">
         <f>ROUND(G22*Model!$E$23,1)</f>
-        <v>4000.8</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <f>ROUND(H22*Model!$E$23,1)</f>
-        <v>4160.8</v>
+        <v>36.4</v>
       </c>
       <c r="J22">
         <f>ROUND(I22*Model!$E$23,1)</f>
-        <v>4327.2</v>
+        <v>37.9</v>
       </c>
       <c r="K22">
         <f>ROUND(J22*Model!$E$23,1)</f>
-        <v>4500.3</v>
+        <v>39.4</v>
       </c>
       <c r="L22">
         <f>ROUND(K22*Model!$E$23,1)</f>
-        <v>4680.3</v>
+        <v>41</v>
       </c>
       <c r="M22">
         <f>ROUND(L22*Model!$E$23,1)</f>
-        <v>4867.5</v>
+        <v>42.6</v>
       </c>
       <c r="N22">
         <f>ROUND(M22*Model!$E$23,1)</f>
-        <v>5062.2</v>
+        <v>44.3</v>
       </c>
       <c r="O22">
         <f>ROUND(N22*Model!$E$23,1)</f>
-        <v>5264.7</v>
+        <v>46.1</v>
       </c>
       <c r="P22">
         <f>ROUND(O22*Model!$E$23,1)</f>
-        <v>5475.3</v>
+        <v>47.9</v>
       </c>
       <c r="Q22">
         <f>ROUND(P22*Model!$E$23,1)</f>
-        <v>5694.3</v>
+        <v>49.8</v>
       </c>
       <c r="R22">
         <f>ROUND(Q22*Model!$E$23,1)</f>
-        <v>5922.1</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <f>ROUND(C23*Model!$E$20,1)</f>
-        <v>28.3</v>
+        <v>50.5</v>
       </c>
       <c r="E23">
         <f>ROUND(D23*Model!$E$21,1)</f>
-        <v>29.7</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <f>ROUND(E23*Model!$E$22,1)</f>
-        <v>32.4</v>
+        <v>57.8</v>
       </c>
       <c r="G23">
         <f>ROUND(F23*Model!$E$23,1)</f>
-        <v>33.700000000000003</v>
+        <v>60.1</v>
       </c>
       <c r="H23">
         <f>ROUND(G23*Model!$E$23,1)</f>
-        <v>35</v>
+        <v>62.5</v>
       </c>
       <c r="I23">
         <f>ROUND(H23*Model!$E$23,1)</f>
-        <v>36.4</v>
+        <v>65</v>
       </c>
       <c r="J23">
         <f>ROUND(I23*Model!$E$23,1)</f>
-        <v>37.9</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="K23">
         <f>ROUND(J23*Model!$E$23,1)</f>
-        <v>39.4</v>
+        <v>70.3</v>
       </c>
       <c r="L23">
         <f>ROUND(K23*Model!$E$23,1)</f>
-        <v>41</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="M23">
         <f>ROUND(L23*Model!$E$23,1)</f>
-        <v>42.6</v>
+        <v>76</v>
       </c>
       <c r="N23">
         <f>ROUND(M23*Model!$E$23,1)</f>
-        <v>44.3</v>
+        <v>79</v>
       </c>
       <c r="O23">
         <f>ROUND(N23*Model!$E$23,1)</f>
-        <v>46.1</v>
+        <v>82.2</v>
       </c>
       <c r="P23">
         <f>ROUND(O23*Model!$E$23,1)</f>
-        <v>47.9</v>
+        <v>85.5</v>
       </c>
       <c r="Q23">
         <f>ROUND(P23*Model!$E$23,1)</f>
-        <v>49.8</v>
+        <v>88.9</v>
       </c>
       <c r="R23">
         <f>ROUND(Q23*Model!$E$23,1)</f>
-        <v>51.8</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -9194,67 +9018,67 @@
         <v>81</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <f>ROUND(C24*Model!$E$20,1)</f>
-        <v>50.5</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E24">
         <f>ROUND(D24*Model!$E$21,1)</f>
-        <v>53</v>
+        <v>33.9</v>
       </c>
       <c r="F24">
         <f>ROUND(E24*Model!$E$22,1)</f>
-        <v>57.8</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <f>ROUND(F24*Model!$E$23,1)</f>
-        <v>60.1</v>
+        <v>38.5</v>
       </c>
       <c r="H24">
         <f>ROUND(G24*Model!$E$23,1)</f>
-        <v>62.5</v>
+        <v>40</v>
       </c>
       <c r="I24">
         <f>ROUND(H24*Model!$E$23,1)</f>
-        <v>65</v>
+        <v>41.6</v>
       </c>
       <c r="J24">
         <f>ROUND(I24*Model!$E$23,1)</f>
-        <v>67.599999999999994</v>
+        <v>43.3</v>
       </c>
       <c r="K24">
         <f>ROUND(J24*Model!$E$23,1)</f>
-        <v>70.3</v>
+        <v>45</v>
       </c>
       <c r="L24">
         <f>ROUND(K24*Model!$E$23,1)</f>
-        <v>73.099999999999994</v>
+        <v>46.8</v>
       </c>
       <c r="M24">
         <f>ROUND(L24*Model!$E$23,1)</f>
-        <v>76</v>
+        <v>48.7</v>
       </c>
       <c r="N24">
         <f>ROUND(M24*Model!$E$23,1)</f>
-        <v>79</v>
+        <v>50.6</v>
       </c>
       <c r="O24">
         <f>ROUND(N24*Model!$E$23,1)</f>
-        <v>82.2</v>
+        <v>52.6</v>
       </c>
       <c r="P24">
         <f>ROUND(O24*Model!$E$23,1)</f>
-        <v>85.5</v>
+        <v>54.7</v>
       </c>
       <c r="Q24">
         <f>ROUND(P24*Model!$E$23,1)</f>
-        <v>88.9</v>
+        <v>56.9</v>
       </c>
       <c r="R24">
         <f>ROUND(Q24*Model!$E$23,1)</f>
-        <v>92.5</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -9265,137 +9089,66 @@
         <v>82</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <f>ROUND(C25*Model!$E$20,1)</f>
-        <v>32.299999999999997</v>
+        <v>30.3</v>
       </c>
       <c r="E25">
         <f>ROUND(D25*Model!$E$21,1)</f>
-        <v>33.9</v>
+        <v>31.8</v>
       </c>
       <c r="F25">
         <f>ROUND(E25*Model!$E$22,1)</f>
-        <v>37</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="G25">
         <f>ROUND(F25*Model!$E$23,1)</f>
-        <v>38.5</v>
+        <v>36.1</v>
       </c>
       <c r="H25">
         <f>ROUND(G25*Model!$E$23,1)</f>
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="I25">
         <f>ROUND(H25*Model!$E$23,1)</f>
-        <v>41.6</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <f>ROUND(I25*Model!$E$23,1)</f>
-        <v>43.3</v>
+        <v>40.6</v>
       </c>
       <c r="K25">
         <f>ROUND(J25*Model!$E$23,1)</f>
-        <v>45</v>
+        <v>42.2</v>
       </c>
       <c r="L25">
         <f>ROUND(K25*Model!$E$23,1)</f>
-        <v>46.8</v>
+        <v>43.9</v>
       </c>
       <c r="M25">
         <f>ROUND(L25*Model!$E$23,1)</f>
-        <v>48.7</v>
+        <v>45.7</v>
       </c>
       <c r="N25">
         <f>ROUND(M25*Model!$E$23,1)</f>
-        <v>50.6</v>
+        <v>47.5</v>
       </c>
       <c r="O25">
         <f>ROUND(N25*Model!$E$23,1)</f>
-        <v>52.6</v>
+        <v>49.4</v>
       </c>
       <c r="P25">
         <f>ROUND(O25*Model!$E$23,1)</f>
-        <v>54.7</v>
+        <v>51.4</v>
       </c>
       <c r="Q25">
         <f>ROUND(P25*Model!$E$23,1)</f>
-        <v>56.9</v>
+        <v>53.5</v>
       </c>
       <c r="R25">
         <f>ROUND(Q25*Model!$E$23,1)</f>
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <f>ROUND(C26*Model!$E$20,1)</f>
-        <v>30.3</v>
-      </c>
-      <c r="E26">
-        <f>ROUND(D26*Model!$E$21,1)</f>
-        <v>31.8</v>
-      </c>
-      <c r="F26">
-        <f>ROUND(E26*Model!$E$22,1)</f>
-        <v>34.700000000000003</v>
-      </c>
-      <c r="G26">
-        <f>ROUND(F26*Model!$E$23,1)</f>
-        <v>36.1</v>
-      </c>
-      <c r="H26">
-        <f>ROUND(G26*Model!$E$23,1)</f>
-        <v>37.5</v>
-      </c>
-      <c r="I26">
-        <f>ROUND(H26*Model!$E$23,1)</f>
-        <v>39</v>
-      </c>
-      <c r="J26">
-        <f>ROUND(I26*Model!$E$23,1)</f>
-        <v>40.6</v>
-      </c>
-      <c r="K26">
-        <f>ROUND(J26*Model!$E$23,1)</f>
-        <v>42.2</v>
-      </c>
-      <c r="L26">
-        <f>ROUND(K26*Model!$E$23,1)</f>
-        <v>43.9</v>
-      </c>
-      <c r="M26">
-        <f>ROUND(L26*Model!$E$23,1)</f>
-        <v>45.7</v>
-      </c>
-      <c r="N26">
-        <f>ROUND(M26*Model!$E$23,1)</f>
-        <v>47.5</v>
-      </c>
-      <c r="O26">
-        <f>ROUND(N26*Model!$E$23,1)</f>
-        <v>49.4</v>
-      </c>
-      <c r="P26">
-        <f>ROUND(O26*Model!$E$23,1)</f>
-        <v>51.4</v>
-      </c>
-      <c r="Q26">
-        <f>ROUND(P26*Model!$E$23,1)</f>
-        <v>53.5</v>
-      </c>
-      <c r="R26">
-        <f>ROUND(Q26*Model!$E$23,1)</f>
         <v>55.6</v>
       </c>
     </row>
@@ -9406,7 +9159,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBBC10F-2F7A-4735-A743-2511DF0DA965}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9427,7 +9180,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>53</v>
@@ -9483,13 +9236,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9">
         <f>VLOOKUP(C2,Model!$A$3:$B$8,2,FALSE)</f>
@@ -9565,13 +9318,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP(C3,Model!$A$3:$B$8,2,FALSE)</f>
@@ -9647,13 +9400,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="9">
         <f>VLOOKUP(C4,Model!$A$3:$B$8,2,FALSE)</f>
@@ -9729,13 +9482,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP(C5,Model!$A$3:$B$8,2,FALSE)</f>
@@ -9811,13 +9564,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP(C6,Model!$A$3:$B$8,2,FALSE)</f>
@@ -9893,13 +9646,13 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP(C7,Model!$A$3:$B$8,2,FALSE)</f>
@@ -9975,13 +9728,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP(C8,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10057,13 +9810,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP(C9,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10139,13 +9892,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="9">
         <f>VLOOKUP(C10,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10221,13 +9974,13 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="9">
         <f>VLOOKUP(C11,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10303,13 +10056,13 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="9">
         <f>VLOOKUP(C12,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10385,13 +10138,13 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="9">
         <f>VLOOKUP(C13,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10467,13 +10220,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="9">
         <f>VLOOKUP(C14,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10549,13 +10302,13 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="9">
         <f>VLOOKUP(C15,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10631,13 +10384,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="9">
         <f>VLOOKUP(C16,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10713,95 +10466,95 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
+        <v>62</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="D17" s="9">
         <f>VLOOKUP(C17,Model!$A$3:$B$8,2,FALSE)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
       </c>
       <c r="F17">
         <f>'prices EUR'!C17*(1-'costs EUR'!D17)</f>
-        <v>125</v>
+        <v>960</v>
       </c>
       <c r="G17">
         <f>ROUND(F17*Model!$E$20,1)</f>
-        <v>126.3</v>
+        <v>970</v>
       </c>
       <c r="H17">
         <f>ROUND(G17*Model!$E$21,1)</f>
-        <v>132.5</v>
+        <v>1017.5</v>
       </c>
       <c r="I17">
         <f>ROUND(H17*Model!$E$22,1)</f>
-        <v>144.5</v>
+        <v>1109.7</v>
       </c>
       <c r="J17">
         <f>ROUND(I17*Model!$E$23,1)</f>
-        <v>150.30000000000001</v>
+        <v>1154.0999999999999</v>
       </c>
       <c r="K17">
         <f>ROUND(J17*Model!$E$23,1)</f>
-        <v>156.30000000000001</v>
+        <v>1200.3</v>
       </c>
       <c r="L17">
         <f>ROUND(K17*Model!$E$20,1)</f>
-        <v>157.9</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="M17">
         <f>ROUND(L17*Model!$E$21,1)</f>
-        <v>165.6</v>
+        <v>1272.2</v>
       </c>
       <c r="N17">
         <f>ROUND(M17*Model!$E$22,1)</f>
-        <v>180.6</v>
+        <v>1387.4</v>
       </c>
       <c r="O17">
         <f>ROUND(N17*Model!$E$23,1)</f>
-        <v>187.8</v>
+        <v>1442.9</v>
       </c>
       <c r="P17">
         <f>ROUND(O17*Model!$E$23,1)</f>
-        <v>195.3</v>
+        <v>1500.6</v>
       </c>
       <c r="Q17">
         <f>ROUND(P17*Model!$E$20,1)</f>
-        <v>197.3</v>
+        <v>1516.3</v>
       </c>
       <c r="R17">
         <f>ROUND(Q17*Model!$E$21,1)</f>
-        <v>207</v>
+        <v>1590.5</v>
       </c>
       <c r="S17">
         <f>ROUND(R17*Model!$E$22,1)</f>
-        <v>225.8</v>
+        <v>1734.6</v>
       </c>
       <c r="T17">
         <f>ROUND(S17*Model!$E$23,1)</f>
-        <v>234.8</v>
+        <v>1804</v>
       </c>
       <c r="U17">
         <f>ROUND(T17*Model!$E$23,1)</f>
-        <v>244.2</v>
+        <v>1876.2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="9">
         <f>VLOOKUP(C18,Model!$A$3:$B$8,2,FALSE)</f>
@@ -10812,160 +10565,160 @@
       </c>
       <c r="F18">
         <f>'prices EUR'!C18*(1-'costs EUR'!D18)</f>
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="G18">
         <f>ROUND(F18*Model!$E$20,1)</f>
-        <v>970</v>
+        <v>1010.5</v>
       </c>
       <c r="H18">
         <f>ROUND(G18*Model!$E$21,1)</f>
-        <v>1017.5</v>
+        <v>1059.9000000000001</v>
       </c>
       <c r="I18">
         <f>ROUND(H18*Model!$E$22,1)</f>
-        <v>1109.7</v>
+        <v>1155.9000000000001</v>
       </c>
       <c r="J18">
         <f>ROUND(I18*Model!$E$23,1)</f>
-        <v>1154.0999999999999</v>
+        <v>1202.0999999999999</v>
       </c>
       <c r="K18">
         <f>ROUND(J18*Model!$E$23,1)</f>
-        <v>1200.3</v>
+        <v>1250.2</v>
       </c>
       <c r="L18">
         <f>ROUND(K18*Model!$E$20,1)</f>
-        <v>1212.9000000000001</v>
+        <v>1263.3</v>
       </c>
       <c r="M18">
         <f>ROUND(L18*Model!$E$21,1)</f>
-        <v>1272.2</v>
+        <v>1325.1</v>
       </c>
       <c r="N18">
         <f>ROUND(M18*Model!$E$22,1)</f>
-        <v>1387.4</v>
+        <v>1445.1</v>
       </c>
       <c r="O18">
         <f>ROUND(N18*Model!$E$23,1)</f>
-        <v>1442.9</v>
+        <v>1502.9</v>
       </c>
       <c r="P18">
         <f>ROUND(O18*Model!$E$23,1)</f>
-        <v>1500.6</v>
+        <v>1563</v>
       </c>
       <c r="Q18">
         <f>ROUND(P18*Model!$E$20,1)</f>
-        <v>1516.3</v>
+        <v>1579.3</v>
       </c>
       <c r="R18">
         <f>ROUND(Q18*Model!$E$21,1)</f>
-        <v>1590.5</v>
+        <v>1656.6</v>
       </c>
       <c r="S18">
         <f>ROUND(R18*Model!$E$22,1)</f>
-        <v>1734.6</v>
+        <v>1806.7</v>
       </c>
       <c r="T18">
         <f>ROUND(S18*Model!$E$23,1)</f>
-        <v>1804</v>
+        <v>1879</v>
       </c>
       <c r="U18">
         <f>ROUND(T18*Model!$E$23,1)</f>
-        <v>1876.2</v>
+        <v>1954.2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D19" s="9">
         <f>VLOOKUP(C19,Model!$A$3:$B$8,2,FALSE)</f>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
       <c r="F19">
         <f>'prices EUR'!C19*(1-'costs EUR'!D19)</f>
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="G19">
         <f>ROUND(F19*Model!$E$20,1)</f>
-        <v>1010.5</v>
+        <v>1131.7</v>
       </c>
       <c r="H19">
         <f>ROUND(G19*Model!$E$21,1)</f>
-        <v>1059.9000000000001</v>
+        <v>1187.0999999999999</v>
       </c>
       <c r="I19">
         <f>ROUND(H19*Model!$E$22,1)</f>
-        <v>1155.9000000000001</v>
+        <v>1294.5999999999999</v>
       </c>
       <c r="J19">
         <f>ROUND(I19*Model!$E$23,1)</f>
-        <v>1202.0999999999999</v>
+        <v>1346.4</v>
       </c>
       <c r="K19">
         <f>ROUND(J19*Model!$E$23,1)</f>
-        <v>1250.2</v>
+        <v>1400.3</v>
       </c>
       <c r="L19">
         <f>ROUND(K19*Model!$E$20,1)</f>
-        <v>1263.3</v>
+        <v>1414.9</v>
       </c>
       <c r="M19">
         <f>ROUND(L19*Model!$E$21,1)</f>
-        <v>1325.1</v>
+        <v>1484.1</v>
       </c>
       <c r="N19">
         <f>ROUND(M19*Model!$E$22,1)</f>
-        <v>1445.1</v>
+        <v>1618.5</v>
       </c>
       <c r="O19">
         <f>ROUND(N19*Model!$E$23,1)</f>
-        <v>1502.9</v>
+        <v>1683.2</v>
       </c>
       <c r="P19">
         <f>ROUND(O19*Model!$E$23,1)</f>
-        <v>1563</v>
+        <v>1750.5</v>
       </c>
       <c r="Q19">
         <f>ROUND(P19*Model!$E$20,1)</f>
-        <v>1579.3</v>
+        <v>1768.8</v>
       </c>
       <c r="R19">
         <f>ROUND(Q19*Model!$E$21,1)</f>
-        <v>1656.6</v>
+        <v>1855.3</v>
       </c>
       <c r="S19">
         <f>ROUND(R19*Model!$E$22,1)</f>
-        <v>1806.7</v>
+        <v>2023.4</v>
       </c>
       <c r="T19">
         <f>ROUND(S19*Model!$E$23,1)</f>
-        <v>1879</v>
+        <v>2104.3000000000002</v>
       </c>
       <c r="U19">
         <f>ROUND(T19*Model!$E$23,1)</f>
-        <v>1954.2</v>
+        <v>2188.5</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="9">
         <f>VLOOKUP(C20,Model!$A$3:$B$8,2,FALSE)</f>
@@ -11041,13 +10794,13 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="9">
         <f>VLOOKUP(C21,Model!$A$3:$B$8,2,FALSE)</f>
@@ -11123,95 +10876,95 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>134</v>
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
       </c>
       <c r="D22" s="9">
         <f>VLOOKUP(C22,Model!$A$3:$B$8,2,FALSE)</f>
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
       </c>
       <c r="F22">
         <f>'prices EUR'!C22*(1-'costs EUR'!D22)</f>
-        <v>1120</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <f>ROUND(F22*Model!$E$20,1)</f>
-        <v>1131.7</v>
+        <v>14.1</v>
       </c>
       <c r="H22">
         <f>ROUND(G22*Model!$E$21,1)</f>
-        <v>1187.0999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="I22">
         <f>ROUND(H22*Model!$E$22,1)</f>
-        <v>1294.5999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J22">
         <f>ROUND(I22*Model!$E$23,1)</f>
-        <v>1346.4</v>
+        <v>16.7</v>
       </c>
       <c r="K22">
         <f>ROUND(J22*Model!$E$23,1)</f>
-        <v>1400.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L22">
         <f>ROUND(K22*Model!$E$20,1)</f>
-        <v>1414.9</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="M22">
         <f>ROUND(L22*Model!$E$21,1)</f>
-        <v>1484.1</v>
+        <v>18.5</v>
       </c>
       <c r="N22">
         <f>ROUND(M22*Model!$E$22,1)</f>
-        <v>1618.5</v>
+        <v>20.2</v>
       </c>
       <c r="O22">
         <f>ROUND(N22*Model!$E$23,1)</f>
-        <v>1683.2</v>
+        <v>21</v>
       </c>
       <c r="P22">
         <f>ROUND(O22*Model!$E$23,1)</f>
-        <v>1750.5</v>
+        <v>21.8</v>
       </c>
       <c r="Q22">
         <f>ROUND(P22*Model!$E$20,1)</f>
-        <v>1768.8</v>
+        <v>22</v>
       </c>
       <c r="R22">
         <f>ROUND(Q22*Model!$E$21,1)</f>
-        <v>1855.3</v>
+        <v>23.1</v>
       </c>
       <c r="S22">
         <f>ROUND(R22*Model!$E$22,1)</f>
-        <v>2023.4</v>
+        <v>25.2</v>
       </c>
       <c r="T22">
         <f>ROUND(S22*Model!$E$23,1)</f>
-        <v>2104.3000000000002</v>
+        <v>26.2</v>
       </c>
       <c r="U22">
         <f>ROUND(T22*Model!$E$23,1)</f>
-        <v>2188.5</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23" s="9">
         <f>VLOOKUP(C23,Model!$A$3:$B$8,2,FALSE)</f>
@@ -11222,67 +10975,67 @@
       </c>
       <c r="F23">
         <f>'prices EUR'!C23*(1-'costs EUR'!D23)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <f>ROUND(F23*Model!$E$20,1)</f>
-        <v>14.1</v>
+        <v>25.3</v>
       </c>
       <c r="H23">
         <f>ROUND(G23*Model!$E$21,1)</f>
-        <v>14.8</v>
+        <v>26.5</v>
       </c>
       <c r="I23">
         <f>ROUND(H23*Model!$E$22,1)</f>
-        <v>16.100000000000001</v>
+        <v>28.9</v>
       </c>
       <c r="J23">
         <f>ROUND(I23*Model!$E$23,1)</f>
-        <v>16.7</v>
+        <v>30.1</v>
       </c>
       <c r="K23">
         <f>ROUND(J23*Model!$E$23,1)</f>
-        <v>17.399999999999999</v>
+        <v>31.3</v>
       </c>
       <c r="L23">
         <f>ROUND(K23*Model!$E$20,1)</f>
-        <v>17.600000000000001</v>
+        <v>31.6</v>
       </c>
       <c r="M23">
         <f>ROUND(L23*Model!$E$21,1)</f>
-        <v>18.5</v>
+        <v>33.1</v>
       </c>
       <c r="N23">
         <f>ROUND(M23*Model!$E$22,1)</f>
-        <v>20.2</v>
+        <v>36.1</v>
       </c>
       <c r="O23">
         <f>ROUND(N23*Model!$E$23,1)</f>
-        <v>21</v>
+        <v>37.5</v>
       </c>
       <c r="P23">
         <f>ROUND(O23*Model!$E$23,1)</f>
-        <v>21.8</v>
+        <v>39</v>
       </c>
       <c r="Q23">
         <f>ROUND(P23*Model!$E$20,1)</f>
-        <v>22</v>
+        <v>39.4</v>
       </c>
       <c r="R23">
         <f>ROUND(Q23*Model!$E$21,1)</f>
-        <v>23.1</v>
+        <v>41.3</v>
       </c>
       <c r="S23">
         <f>ROUND(R23*Model!$E$22,1)</f>
-        <v>25.2</v>
+        <v>45</v>
       </c>
       <c r="T23">
         <f>ROUND(S23*Model!$E$23,1)</f>
-        <v>26.2</v>
+        <v>46.8</v>
       </c>
       <c r="U23">
         <f>ROUND(T23*Model!$E$23,1)</f>
-        <v>27.2</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -11290,10 +11043,10 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="9">
         <f>VLOOKUP(C24,Model!$A$3:$B$8,2,FALSE)</f>
@@ -11304,67 +11057,67 @@
       </c>
       <c r="F24">
         <f>'prices EUR'!C24*(1-'costs EUR'!D24)</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <f>ROUND(F24*Model!$E$20,1)</f>
-        <v>25.3</v>
+        <v>16.2</v>
       </c>
       <c r="H24">
         <f>ROUND(G24*Model!$E$21,1)</f>
-        <v>26.5</v>
+        <v>17</v>
       </c>
       <c r="I24">
         <f>ROUND(H24*Model!$E$22,1)</f>
-        <v>28.9</v>
+        <v>18.5</v>
       </c>
       <c r="J24">
         <f>ROUND(I24*Model!$E$23,1)</f>
-        <v>30.1</v>
+        <v>19.2</v>
       </c>
       <c r="K24">
         <f>ROUND(J24*Model!$E$23,1)</f>
-        <v>31.3</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <f>ROUND(K24*Model!$E$20,1)</f>
-        <v>31.6</v>
+        <v>20.2</v>
       </c>
       <c r="M24">
         <f>ROUND(L24*Model!$E$21,1)</f>
-        <v>33.1</v>
+        <v>21.2</v>
       </c>
       <c r="N24">
         <f>ROUND(M24*Model!$E$22,1)</f>
-        <v>36.1</v>
+        <v>23.1</v>
       </c>
       <c r="O24">
         <f>ROUND(N24*Model!$E$23,1)</f>
-        <v>37.5</v>
+        <v>24</v>
       </c>
       <c r="P24">
         <f>ROUND(O24*Model!$E$23,1)</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q24">
         <f>ROUND(P24*Model!$E$20,1)</f>
-        <v>39.4</v>
+        <v>25.3</v>
       </c>
       <c r="R24">
         <f>ROUND(Q24*Model!$E$21,1)</f>
-        <v>41.3</v>
+        <v>26.5</v>
       </c>
       <c r="S24">
         <f>ROUND(R24*Model!$E$22,1)</f>
-        <v>45</v>
+        <v>28.9</v>
       </c>
       <c r="T24">
         <f>ROUND(S24*Model!$E$23,1)</f>
-        <v>46.8</v>
+        <v>30.1</v>
       </c>
       <c r="U24">
         <f>ROUND(T24*Model!$E$23,1)</f>
-        <v>48.7</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -11375,7 +11128,7 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D25" s="9">
         <f>VLOOKUP(C25,Model!$A$3:$B$8,2,FALSE)</f>
@@ -11386,148 +11139,66 @@
       </c>
       <c r="F25">
         <f>'prices EUR'!C25*(1-'costs EUR'!D25)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <f>ROUND(F25*Model!$E$20,1)</f>
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="H25">
         <f>ROUND(G25*Model!$E$21,1)</f>
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="I25">
         <f>ROUND(H25*Model!$E$22,1)</f>
-        <v>18.5</v>
+        <v>17.3</v>
       </c>
       <c r="J25">
         <f>ROUND(I25*Model!$E$23,1)</f>
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="K25">
         <f>ROUND(J25*Model!$E$23,1)</f>
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="L25">
         <f>ROUND(K25*Model!$E$20,1)</f>
-        <v>20.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M25">
         <f>ROUND(L25*Model!$E$21,1)</f>
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="N25">
         <f>ROUND(M25*Model!$E$22,1)</f>
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="O25">
         <f>ROUND(N25*Model!$E$23,1)</f>
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="P25">
         <f>ROUND(O25*Model!$E$23,1)</f>
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="Q25">
         <f>ROUND(P25*Model!$E$20,1)</f>
-        <v>25.3</v>
+        <v>23.6</v>
       </c>
       <c r="R25">
         <f>ROUND(Q25*Model!$E$21,1)</f>
-        <v>26.5</v>
+        <v>24.8</v>
       </c>
       <c r="S25">
         <f>ROUND(R25*Model!$E$22,1)</f>
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="T25">
         <f>ROUND(S25*Model!$E$23,1)</f>
-        <v>30.1</v>
+        <v>28.1</v>
       </c>
       <c r="U25">
         <f>ROUND(T25*Model!$E$23,1)</f>
-        <v>31.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="9">
-        <f>VLOOKUP(C26,Model!$A$3:$B$8,2,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26">
-        <f>'prices EUR'!C26*(1-'costs EUR'!D26)</f>
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <f>ROUND(F26*Model!$E$20,1)</f>
-        <v>15.2</v>
-      </c>
-      <c r="H26">
-        <f>ROUND(G26*Model!$E$21,1)</f>
-        <v>15.9</v>
-      </c>
-      <c r="I26">
-        <f>ROUND(H26*Model!$E$22,1)</f>
-        <v>17.3</v>
-      </c>
-      <c r="J26">
-        <f>ROUND(I26*Model!$E$23,1)</f>
-        <v>18</v>
-      </c>
-      <c r="K26">
-        <f>ROUND(J26*Model!$E$23,1)</f>
-        <v>18.7</v>
-      </c>
-      <c r="L26">
-        <f>ROUND(K26*Model!$E$20,1)</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="M26">
-        <f>ROUND(L26*Model!$E$21,1)</f>
-        <v>19.8</v>
-      </c>
-      <c r="N26">
-        <f>ROUND(M26*Model!$E$22,1)</f>
-        <v>21.6</v>
-      </c>
-      <c r="O26">
-        <f>ROUND(N26*Model!$E$23,1)</f>
-        <v>22.5</v>
-      </c>
-      <c r="P26">
-        <f>ROUND(O26*Model!$E$23,1)</f>
-        <v>23.4</v>
-      </c>
-      <c r="Q26">
-        <f>ROUND(P26*Model!$E$20,1)</f>
-        <v>23.6</v>
-      </c>
-      <c r="R26">
-        <f>ROUND(Q26*Model!$E$21,1)</f>
-        <v>24.8</v>
-      </c>
-      <c r="S26">
-        <f>ROUND(R26*Model!$E$22,1)</f>
-        <v>27</v>
-      </c>
-      <c r="T26">
-        <f>ROUND(S26*Model!$E$23,1)</f>
-        <v>28.1</v>
-      </c>
-      <c r="U26">
-        <f>ROUND(T26*Model!$E$23,1)</f>
         <v>29.2</v>
       </c>
     </row>
@@ -11538,7 +11209,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C4A254-2365-46FC-92E6-164A281C216D}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11608,7 +11279,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -11680,7 +11351,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -11752,7 +11423,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -11824,7 +11495,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -11896,7 +11567,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -11968,7 +11639,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -12040,7 +11711,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -12112,7 +11783,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -12184,7 +11855,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -12256,7 +11927,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -12328,7 +11999,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -12400,7 +12071,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -12472,7 +12143,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -12544,7 +12215,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -12616,7 +12287,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -12688,223 +12359,223 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
       </c>
       <c r="C17">
         <f>ROUND('prices EUR'!C17*Model!$D$26,1)</f>
-        <v>280</v>
+        <v>2688.4</v>
       </c>
       <c r="D17">
         <f>ROUND('prices EUR'!D17*Model!$D$27,1)</f>
-        <v>309.10000000000002</v>
+        <v>2967.1</v>
       </c>
       <c r="E17">
         <f>ROUND('prices EUR'!E17*Model!$D$28,1)</f>
-        <v>301.39999999999998</v>
+        <v>2893.2</v>
       </c>
       <c r="F17">
         <f>ROUND('prices EUR'!F17*Model!$D$29,1)</f>
-        <v>308.3</v>
+        <v>2959</v>
       </c>
       <c r="G17">
         <f>ROUND('prices EUR'!G17*Model!$D$29,1)</f>
-        <v>320.60000000000002</v>
+        <v>3077.4</v>
       </c>
       <c r="H17">
         <f>ROUND('prices EUR'!H17*Model!$D$29,1)</f>
-        <v>333.4</v>
+        <v>3200.5</v>
       </c>
       <c r="I17">
         <f>ROUND('prices EUR'!I17*Model!$D$29,1)</f>
-        <v>346.8</v>
+        <v>3328.5</v>
       </c>
       <c r="J17">
         <f>ROUND('prices EUR'!J17*Model!$D$29,1)</f>
-        <v>360.6</v>
+        <v>3461.6</v>
       </c>
       <c r="K17">
         <f>ROUND('prices EUR'!K17*Model!$D$29,1)</f>
-        <v>375</v>
+        <v>3600.1</v>
       </c>
       <c r="L17">
         <f>ROUND('prices EUR'!L17*Model!$D$29,1)</f>
-        <v>390.1</v>
+        <v>3744.1</v>
       </c>
       <c r="M17">
         <f>ROUND('prices EUR'!M17*Model!$D$29,1)</f>
-        <v>405.7</v>
+        <v>3893.8</v>
       </c>
       <c r="N17">
         <f>ROUND('prices EUR'!N17*Model!$D$29,1)</f>
-        <v>421.9</v>
+        <v>4049.6</v>
       </c>
       <c r="O17">
         <f>ROUND('prices EUR'!O17*Model!$D$29,1)</f>
-        <v>438.7</v>
+        <v>4211.6000000000004</v>
       </c>
       <c r="P17">
         <f>ROUND('prices EUR'!P17*Model!$D$29,1)</f>
-        <v>456.3</v>
+        <v>4380</v>
       </c>
       <c r="Q17">
         <f>ROUND('prices EUR'!Q17*Model!$D$29,1)</f>
-        <v>474.6</v>
+        <v>4555.3</v>
       </c>
       <c r="R17">
         <f>ROUND('prices EUR'!R17*Model!$D$29,1)</f>
-        <v>493.5</v>
+        <v>4737.5</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18">
         <f>ROUND('prices EUR'!C18*Model!$D$26,1)</f>
-        <v>2688.4</v>
+        <v>2800.4</v>
       </c>
       <c r="D18">
         <f>ROUND('prices EUR'!D18*Model!$D$27,1)</f>
-        <v>2967.1</v>
+        <v>3090.7</v>
       </c>
       <c r="E18">
         <f>ROUND('prices EUR'!E18*Model!$D$28,1)</f>
-        <v>2893.2</v>
+        <v>3013.8</v>
       </c>
       <c r="F18">
         <f>ROUND('prices EUR'!F18*Model!$D$29,1)</f>
-        <v>2959</v>
+        <v>3082.3</v>
       </c>
       <c r="G18">
         <f>ROUND('prices EUR'!G18*Model!$D$29,1)</f>
-        <v>3077.4</v>
+        <v>3205.6</v>
       </c>
       <c r="H18">
         <f>ROUND('prices EUR'!H18*Model!$D$29,1)</f>
-        <v>3200.5</v>
+        <v>3333.8</v>
       </c>
       <c r="I18">
         <f>ROUND('prices EUR'!I18*Model!$D$29,1)</f>
-        <v>3328.5</v>
+        <v>3467.2</v>
       </c>
       <c r="J18">
         <f>ROUND('prices EUR'!J18*Model!$D$29,1)</f>
-        <v>3461.6</v>
+        <v>3605.8</v>
       </c>
       <c r="K18">
         <f>ROUND('prices EUR'!K18*Model!$D$29,1)</f>
-        <v>3600.1</v>
+        <v>3750.1</v>
       </c>
       <c r="L18">
         <f>ROUND('prices EUR'!L18*Model!$D$29,1)</f>
-        <v>3744.1</v>
+        <v>3900</v>
       </c>
       <c r="M18">
         <f>ROUND('prices EUR'!M18*Model!$D$29,1)</f>
-        <v>3893.8</v>
+        <v>4056.1</v>
       </c>
       <c r="N18">
         <f>ROUND('prices EUR'!N18*Model!$D$29,1)</f>
-        <v>4049.6</v>
+        <v>4218.3</v>
       </c>
       <c r="O18">
         <f>ROUND('prices EUR'!O18*Model!$D$29,1)</f>
-        <v>4211.6000000000004</v>
+        <v>4387.1000000000004</v>
       </c>
       <c r="P18">
         <f>ROUND('prices EUR'!P18*Model!$D$29,1)</f>
-        <v>4380</v>
+        <v>4562.5</v>
       </c>
       <c r="Q18">
         <f>ROUND('prices EUR'!Q18*Model!$D$29,1)</f>
-        <v>4555.3</v>
+        <v>4745</v>
       </c>
       <c r="R18">
         <f>ROUND('prices EUR'!R18*Model!$D$29,1)</f>
-        <v>4737.5</v>
+        <v>4934.8</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
       </c>
       <c r="C19">
         <f>ROUND('prices EUR'!C19*Model!$D$26,1)</f>
-        <v>2800.4</v>
+        <v>3584.5</v>
       </c>
       <c r="D19">
         <f>ROUND('prices EUR'!D19*Model!$D$27,1)</f>
-        <v>3090.7</v>
+        <v>3956.2</v>
       </c>
       <c r="E19">
         <f>ROUND('prices EUR'!E19*Model!$D$28,1)</f>
-        <v>3013.8</v>
+        <v>3857.7</v>
       </c>
       <c r="F19">
         <f>ROUND('prices EUR'!F19*Model!$D$29,1)</f>
-        <v>3082.3</v>
+        <v>3945.5</v>
       </c>
       <c r="G19">
         <f>ROUND('prices EUR'!G19*Model!$D$29,1)</f>
-        <v>3205.6</v>
+        <v>4103.3</v>
       </c>
       <c r="H19">
         <f>ROUND('prices EUR'!H19*Model!$D$29,1)</f>
-        <v>3333.8</v>
+        <v>4267.5</v>
       </c>
       <c r="I19">
         <f>ROUND('prices EUR'!I19*Model!$D$29,1)</f>
-        <v>3467.2</v>
+        <v>4438.2</v>
       </c>
       <c r="J19">
         <f>ROUND('prices EUR'!J19*Model!$D$29,1)</f>
-        <v>3605.8</v>
+        <v>4615.7</v>
       </c>
       <c r="K19">
         <f>ROUND('prices EUR'!K19*Model!$D$29,1)</f>
-        <v>3750.1</v>
+        <v>4800.3</v>
       </c>
       <c r="L19">
         <f>ROUND('prices EUR'!L19*Model!$D$29,1)</f>
-        <v>3900</v>
+        <v>4992.3</v>
       </c>
       <c r="M19">
         <f>ROUND('prices EUR'!M19*Model!$D$29,1)</f>
-        <v>4056.1</v>
+        <v>5192</v>
       </c>
       <c r="N19">
         <f>ROUND('prices EUR'!N19*Model!$D$29,1)</f>
-        <v>4218.3</v>
+        <v>5399.6</v>
       </c>
       <c r="O19">
         <f>ROUND('prices EUR'!O19*Model!$D$29,1)</f>
-        <v>4387.1000000000004</v>
+        <v>5615.6</v>
       </c>
       <c r="P19">
         <f>ROUND('prices EUR'!P19*Model!$D$29,1)</f>
-        <v>4562.5</v>
+        <v>5840.3</v>
       </c>
       <c r="Q19">
         <f>ROUND('prices EUR'!Q19*Model!$D$29,1)</f>
-        <v>4745</v>
+        <v>6073.9</v>
       </c>
       <c r="R19">
         <f>ROUND('prices EUR'!R19*Model!$D$29,1)</f>
-        <v>4934.8</v>
+        <v>6316.9</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -12976,7 +12647,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -13048,146 +12719,146 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>79</v>
       </c>
       <c r="C22">
         <f>ROUND('prices EUR'!C22*Model!$D$26,1)</f>
-        <v>3584.5</v>
+        <v>31.4</v>
       </c>
       <c r="D22">
         <f>ROUND('prices EUR'!D22*Model!$D$27,1)</f>
-        <v>3956.2</v>
+        <v>34.6</v>
       </c>
       <c r="E22">
         <f>ROUND('prices EUR'!E22*Model!$D$28,1)</f>
-        <v>3857.7</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F22">
         <f>ROUND('prices EUR'!F22*Model!$D$29,1)</f>
-        <v>3945.5</v>
+        <v>34.6</v>
       </c>
       <c r="G22">
         <f>ROUND('prices EUR'!G22*Model!$D$29,1)</f>
-        <v>4103.3</v>
+        <v>35.9</v>
       </c>
       <c r="H22">
         <f>ROUND('prices EUR'!H22*Model!$D$29,1)</f>
-        <v>4267.5</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I22">
         <f>ROUND('prices EUR'!I22*Model!$D$29,1)</f>
-        <v>4438.2</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="J22">
         <f>ROUND('prices EUR'!J22*Model!$D$29,1)</f>
-        <v>4615.7</v>
+        <v>40.4</v>
       </c>
       <c r="K22">
         <f>ROUND('prices EUR'!K22*Model!$D$29,1)</f>
-        <v>4800.3</v>
+        <v>42</v>
       </c>
       <c r="L22">
         <f>ROUND('prices EUR'!L22*Model!$D$29,1)</f>
-        <v>4992.3</v>
+        <v>43.7</v>
       </c>
       <c r="M22">
         <f>ROUND('prices EUR'!M22*Model!$D$29,1)</f>
-        <v>5192</v>
+        <v>45.4</v>
       </c>
       <c r="N22">
         <f>ROUND('prices EUR'!N22*Model!$D$29,1)</f>
-        <v>5399.6</v>
+        <v>47.3</v>
       </c>
       <c r="O22">
         <f>ROUND('prices EUR'!O22*Model!$D$29,1)</f>
-        <v>5615.6</v>
+        <v>49.2</v>
       </c>
       <c r="P22">
         <f>ROUND('prices EUR'!P22*Model!$D$29,1)</f>
-        <v>5840.3</v>
+        <v>51.1</v>
       </c>
       <c r="Q22">
         <f>ROUND('prices EUR'!Q22*Model!$D$29,1)</f>
-        <v>6073.9</v>
+        <v>53.1</v>
       </c>
       <c r="R22">
         <f>ROUND('prices EUR'!R22*Model!$D$29,1)</f>
-        <v>6316.9</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
       <c r="C23">
         <f>ROUND('prices EUR'!C23*Model!$D$26,1)</f>
-        <v>31.4</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <f>ROUND('prices EUR'!D23*Model!$D$27,1)</f>
-        <v>34.6</v>
+        <v>61.8</v>
       </c>
       <c r="E23">
         <f>ROUND('prices EUR'!E23*Model!$D$28,1)</f>
-        <v>33.799999999999997</v>
+        <v>60.3</v>
       </c>
       <c r="F23">
         <f>ROUND('prices EUR'!F23*Model!$D$29,1)</f>
-        <v>34.6</v>
+        <v>61.7</v>
       </c>
       <c r="G23">
         <f>ROUND('prices EUR'!G23*Model!$D$29,1)</f>
-        <v>35.9</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="H23">
         <f>ROUND('prices EUR'!H23*Model!$D$29,1)</f>
-        <v>37.299999999999997</v>
+        <v>66.7</v>
       </c>
       <c r="I23">
         <f>ROUND('prices EUR'!I23*Model!$D$29,1)</f>
-        <v>38.799999999999997</v>
+        <v>69.3</v>
       </c>
       <c r="J23">
         <f>ROUND('prices EUR'!J23*Model!$D$29,1)</f>
-        <v>40.4</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="K23">
         <f>ROUND('prices EUR'!K23*Model!$D$29,1)</f>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L23">
         <f>ROUND('prices EUR'!L23*Model!$D$29,1)</f>
-        <v>43.7</v>
+        <v>78</v>
       </c>
       <c r="M23">
         <f>ROUND('prices EUR'!M23*Model!$D$29,1)</f>
-        <v>45.4</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="N23">
         <f>ROUND('prices EUR'!N23*Model!$D$29,1)</f>
-        <v>47.3</v>
+        <v>84.3</v>
       </c>
       <c r="O23">
         <f>ROUND('prices EUR'!O23*Model!$D$29,1)</f>
-        <v>49.2</v>
+        <v>87.7</v>
       </c>
       <c r="P23">
         <f>ROUND('prices EUR'!P23*Model!$D$29,1)</f>
-        <v>51.1</v>
+        <v>91.2</v>
       </c>
       <c r="Q23">
         <f>ROUND('prices EUR'!Q23*Model!$D$29,1)</f>
-        <v>53.1</v>
+        <v>94.8</v>
       </c>
       <c r="R23">
         <f>ROUND('prices EUR'!R23*Model!$D$29,1)</f>
-        <v>55.3</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -13199,67 +12870,67 @@
       </c>
       <c r="C24">
         <f>ROUND('prices EUR'!C24*Model!$D$26,1)</f>
-        <v>56</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D24">
         <f>ROUND('prices EUR'!D24*Model!$D$27,1)</f>
-        <v>61.8</v>
+        <v>39.5</v>
       </c>
       <c r="E24">
         <f>ROUND('prices EUR'!E24*Model!$D$28,1)</f>
-        <v>60.3</v>
+        <v>38.6</v>
       </c>
       <c r="F24">
         <f>ROUND('prices EUR'!F24*Model!$D$29,1)</f>
-        <v>61.7</v>
+        <v>39.5</v>
       </c>
       <c r="G24">
         <f>ROUND('prices EUR'!G24*Model!$D$29,1)</f>
-        <v>64.099999999999994</v>
+        <v>41.1</v>
       </c>
       <c r="H24">
         <f>ROUND('prices EUR'!H24*Model!$D$29,1)</f>
-        <v>66.7</v>
+        <v>42.7</v>
       </c>
       <c r="I24">
         <f>ROUND('prices EUR'!I24*Model!$D$29,1)</f>
-        <v>69.3</v>
+        <v>44.4</v>
       </c>
       <c r="J24">
         <f>ROUND('prices EUR'!J24*Model!$D$29,1)</f>
-        <v>72.099999999999994</v>
+        <v>46.2</v>
       </c>
       <c r="K24">
         <f>ROUND('prices EUR'!K24*Model!$D$29,1)</f>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="L24">
         <f>ROUND('prices EUR'!L24*Model!$D$29,1)</f>
-        <v>78</v>
+        <v>49.9</v>
       </c>
       <c r="M24">
         <f>ROUND('prices EUR'!M24*Model!$D$29,1)</f>
-        <v>81.099999999999994</v>
+        <v>51.9</v>
       </c>
       <c r="N24">
         <f>ROUND('prices EUR'!N24*Model!$D$29,1)</f>
-        <v>84.3</v>
+        <v>54</v>
       </c>
       <c r="O24">
         <f>ROUND('prices EUR'!O24*Model!$D$29,1)</f>
-        <v>87.7</v>
+        <v>56.1</v>
       </c>
       <c r="P24">
         <f>ROUND('prices EUR'!P24*Model!$D$29,1)</f>
-        <v>91.2</v>
+        <v>58.3</v>
       </c>
       <c r="Q24">
         <f>ROUND('prices EUR'!Q24*Model!$D$29,1)</f>
-        <v>94.8</v>
+        <v>60.7</v>
       </c>
       <c r="R24">
         <f>ROUND('prices EUR'!R24*Model!$D$29,1)</f>
-        <v>98.7</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -13271,138 +12942,66 @@
       </c>
       <c r="C25">
         <f>ROUND('prices EUR'!C25*Model!$D$26,1)</f>
-        <v>35.799999999999997</v>
+        <v>33.6</v>
       </c>
       <c r="D25">
         <f>ROUND('prices EUR'!D25*Model!$D$27,1)</f>
-        <v>39.5</v>
+        <v>37.1</v>
       </c>
       <c r="E25">
         <f>ROUND('prices EUR'!E25*Model!$D$28,1)</f>
-        <v>38.6</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="F25">
         <f>ROUND('prices EUR'!F25*Model!$D$29,1)</f>
-        <v>39.5</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <f>ROUND('prices EUR'!G25*Model!$D$29,1)</f>
-        <v>41.1</v>
+        <v>38.5</v>
       </c>
       <c r="H25">
         <f>ROUND('prices EUR'!H25*Model!$D$29,1)</f>
-        <v>42.7</v>
+        <v>40</v>
       </c>
       <c r="I25">
         <f>ROUND('prices EUR'!I25*Model!$D$29,1)</f>
-        <v>44.4</v>
+        <v>41.6</v>
       </c>
       <c r="J25">
         <f>ROUND('prices EUR'!J25*Model!$D$29,1)</f>
-        <v>46.2</v>
+        <v>43.3</v>
       </c>
       <c r="K25">
         <f>ROUND('prices EUR'!K25*Model!$D$29,1)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L25">
         <f>ROUND('prices EUR'!L25*Model!$D$29,1)</f>
-        <v>49.9</v>
+        <v>46.8</v>
       </c>
       <c r="M25">
         <f>ROUND('prices EUR'!M25*Model!$D$29,1)</f>
-        <v>51.9</v>
+        <v>48.7</v>
       </c>
       <c r="N25">
         <f>ROUND('prices EUR'!N25*Model!$D$29,1)</f>
-        <v>54</v>
+        <v>50.7</v>
       </c>
       <c r="O25">
         <f>ROUND('prices EUR'!O25*Model!$D$29,1)</f>
-        <v>56.1</v>
+        <v>52.7</v>
       </c>
       <c r="P25">
         <f>ROUND('prices EUR'!P25*Model!$D$29,1)</f>
-        <v>58.3</v>
+        <v>54.8</v>
       </c>
       <c r="Q25">
         <f>ROUND('prices EUR'!Q25*Model!$D$29,1)</f>
-        <v>60.7</v>
+        <v>57.1</v>
       </c>
       <c r="R25">
         <f>ROUND('prices EUR'!R25*Model!$D$29,1)</f>
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26">
-        <f>ROUND('prices EUR'!C26*Model!$D$26,1)</f>
-        <v>33.6</v>
-      </c>
-      <c r="D26">
-        <f>ROUND('prices EUR'!D26*Model!$D$27,1)</f>
-        <v>37.1</v>
-      </c>
-      <c r="E26">
-        <f>ROUND('prices EUR'!E26*Model!$D$28,1)</f>
-        <v>36.200000000000003</v>
-      </c>
-      <c r="F26">
-        <f>ROUND('prices EUR'!F26*Model!$D$29,1)</f>
-        <v>37</v>
-      </c>
-      <c r="G26">
-        <f>ROUND('prices EUR'!G26*Model!$D$29,1)</f>
-        <v>38.5</v>
-      </c>
-      <c r="H26">
-        <f>ROUND('prices EUR'!H26*Model!$D$29,1)</f>
-        <v>40</v>
-      </c>
-      <c r="I26">
-        <f>ROUND('prices EUR'!I26*Model!$D$29,1)</f>
-        <v>41.6</v>
-      </c>
-      <c r="J26">
-        <f>ROUND('prices EUR'!J26*Model!$D$29,1)</f>
-        <v>43.3</v>
-      </c>
-      <c r="K26">
-        <f>ROUND('prices EUR'!K26*Model!$D$29,1)</f>
-        <v>45</v>
-      </c>
-      <c r="L26">
-        <f>ROUND('prices EUR'!L26*Model!$D$29,1)</f>
-        <v>46.8</v>
-      </c>
-      <c r="M26">
-        <f>ROUND('prices EUR'!M26*Model!$D$29,1)</f>
-        <v>48.7</v>
-      </c>
-      <c r="N26">
-        <f>ROUND('prices EUR'!N26*Model!$D$29,1)</f>
-        <v>50.7</v>
-      </c>
-      <c r="O26">
-        <f>ROUND('prices EUR'!O26*Model!$D$29,1)</f>
-        <v>52.7</v>
-      </c>
-      <c r="P26">
-        <f>ROUND('prices EUR'!P26*Model!$D$29,1)</f>
-        <v>54.8</v>
-      </c>
-      <c r="Q26">
-        <f>ROUND('prices EUR'!Q26*Model!$D$29,1)</f>
-        <v>57.1</v>
-      </c>
-      <c r="R26">
-        <f>ROUND('prices EUR'!R26*Model!$D$29,1)</f>
         <v>59.3</v>
       </c>
     </row>

--- a/generator/masterdata.xlsx
+++ b/generator/masterdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127388DF-7D94-436E-A17A-2803C3AE9E28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661354DD-C77B-4322-9949-E33E67B00A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="years" sheetId="7" r:id="rId1"/>
@@ -1182,13 +1182,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D9E596-51CC-440C-8BFE-8B4B0D6F8F00}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -1196,155 +1198,131 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="B10">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2026</v>
+        <v>2031</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2027</v>
+        <v>2032</v>
       </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2028</v>
+        <v>2033</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="B17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2031</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2032</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2033</v>
-      </c>
-      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -1360,15 +1338,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.90625" customWidth="1"/>
-    <col min="19" max="23" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="23" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1424,7 +1402,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -1496,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -1568,7 +1546,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1640,7 +1618,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1712,7 +1690,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1784,7 +1762,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -1856,7 +1834,7 @@
         <v>2188.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -1928,7 +1906,7 @@
         <v>2188.6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2000,7 +1978,7 @@
         <v>2188.6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -2072,7 +2050,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2144,7 +2122,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -2216,7 +2194,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -2288,7 +2266,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -2360,7 +2338,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -2432,7 +2410,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -2504,7 +2482,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -2576,7 +2554,7 @@
         <v>2001.3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -2648,7 +2626,7 @@
         <v>2084.5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -2720,7 +2698,7 @@
         <v>2334.4</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -2792,7 +2770,7 @@
         <v>2334.4</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -2864,7 +2842,7 @@
         <v>2334.4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -2936,7 +2914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -3008,7 +2986,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -3080,7 +3058,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -3163,12 +3141,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -3182,7 +3160,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3194,7 +3172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3205,7 +3183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3216,7 +3194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3227,7 +3205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3238,7 +3216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3249,7 +3227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3260,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3271,7 +3249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3282,7 +3260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3293,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3304,7 +3282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3315,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3326,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3337,7 +3315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3348,7 +3326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3359,7 +3337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3370,7 +3348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3381,7 +3359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3392,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3403,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3414,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3425,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3436,7 +3414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3447,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3458,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3469,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3480,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3491,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3502,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3513,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3524,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3535,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3546,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3557,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3568,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3579,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3590,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3601,7 +3579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3615,7 +3593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3626,7 +3604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3637,7 +3615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3648,7 +3626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3659,7 +3637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3670,7 +3648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3681,7 +3659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3692,7 +3670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3703,7 +3681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3714,7 +3692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3725,7 +3703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3736,7 +3714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3747,7 +3725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3761,7 +3739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3772,7 +3750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3795,15 +3773,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -3826,7 +3804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -3849,7 +3827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3872,7 +3850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3895,7 +3873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3918,7 +3896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3941,7 +3919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3964,7 +3942,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3987,7 +3965,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -4010,7 +3988,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4033,7 +4011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -4056,7 +4034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -4079,7 +4057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -4102,7 +4080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4125,7 +4103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -4171,7 +4149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -4194,7 +4172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4217,7 +4195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4240,7 +4218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -4263,7 +4241,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -4286,7 +4264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -4309,7 +4287,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -4332,7 +4310,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4355,7 +4333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -4393,15 +4371,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -4418,7 +4396,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -4435,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -4452,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -4469,7 +4447,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -4486,7 +4464,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -4503,7 +4481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -4520,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -4537,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -4554,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -4571,7 +4549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -4588,7 +4566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -4605,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -4622,7 +4600,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -4639,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -4656,7 +4634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -4673,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -4690,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -4707,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -4724,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -4741,7 +4719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -4758,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -4775,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -4792,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -4809,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -4835,14 +4813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ED7805-F9C9-44B5-8A0B-A5E579593692}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4919,7 +4897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4996,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5073,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5150,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5227,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -5304,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5381,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -5458,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -5535,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -5612,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -5689,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -5766,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -5843,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -5920,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5997,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -6074,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -6151,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -6228,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6305,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -6382,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -6459,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -6536,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -6613,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -6690,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -6779,14 +6757,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>129</v>
@@ -6802,7 +6780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>132</v>
       </c>
@@ -6817,7 +6795,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>134</v>
       </c>
@@ -6832,7 +6810,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>136</v>
       </c>
@@ -6847,7 +6825,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>138</v>
       </c>
@@ -6862,7 +6840,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>140</v>
       </c>
@@ -6885,7 +6863,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>143</v>
       </c>
@@ -6908,7 +6886,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6925,7 +6903,7 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M10" s="10" t="s">
         <v>147</v>
       </c>
@@ -6937,7 +6915,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M11" s="10" t="s">
         <v>149</v>
       </c>
@@ -6949,7 +6927,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M12" s="10" t="s">
         <v>151</v>
       </c>
@@ -6961,7 +6939,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M13" s="10" t="s">
         <v>153</v>
       </c>
@@ -6973,7 +6951,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M14" s="10" t="s">
         <v>155</v>
       </c>
@@ -6985,7 +6963,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M15" s="10" t="s">
         <v>157</v>
       </c>
@@ -6997,8 +6975,8 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:19" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>159</v>
       </c>
@@ -7021,7 +6999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>165</v>
       </c>
@@ -7047,7 +7025,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>167</v>
       </c>
@@ -7080,7 +7058,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>169</v>
       </c>
@@ -7117,7 +7095,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>170</v>
       </c>
@@ -7154,7 +7132,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>170</v>
       </c>
@@ -7191,7 +7169,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>172</v>
       </c>
@@ -7221,7 +7199,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="M24" s="13">
         <v>2018</v>
       </c>
@@ -7245,7 +7223,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D25" s="18" t="s">
         <v>173</v>
       </c>
@@ -7272,7 +7250,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C26" s="19">
         <v>43831</v>
       </c>
@@ -7302,7 +7280,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C27" s="19">
         <v>44199</v>
       </c>
@@ -7332,7 +7310,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C28" s="19">
         <v>44563</v>
       </c>
@@ -7353,7 +7331,7 @@
       </c>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C29" s="19">
         <v>44928</v>
       </c>
@@ -7385,14 +7363,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -7448,7 +7426,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -7519,7 +7497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -7590,7 +7568,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -7661,7 +7639,7 @@
         <v>721.8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -7732,7 +7710,7 @@
         <v>721.8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -7803,7 +7781,7 @@
         <v>721.8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -7874,7 +7852,7 @@
         <v>5551.8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -7945,7 +7923,7 @@
         <v>5551.8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -8016,7 +7994,7 @@
         <v>5551.8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -8087,7 +8065,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -8158,7 +8136,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -8229,7 +8207,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -8300,7 +8278,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -8371,7 +8349,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -8442,7 +8420,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -8513,7 +8491,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -8584,7 +8562,7 @@
         <v>4441.3999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -8655,7 +8633,7 @@
         <v>4626.3999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -8726,7 +8704,7 @@
         <v>5922.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -8797,7 +8775,7 @@
         <v>5922.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -8868,7 +8846,7 @@
         <v>5922.1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -8939,7 +8917,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -9010,7 +8988,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -9081,7 +9059,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -9163,15 +9141,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="21" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="21" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -9234,7 +9212,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -9316,7 +9294,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -9398,7 +9376,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -9480,7 +9458,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -9562,7 +9540,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -9644,7 +9622,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -9726,7 +9704,7 @@
         <v>2051.8000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -9808,7 +9786,7 @@
         <v>2051.8000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -9890,7 +9868,7 @@
         <v>2051.8000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -9972,7 +9950,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -10054,7 +10032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -10136,7 +10114,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -10218,7 +10196,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -10300,7 +10278,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -10382,7 +10360,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -10464,7 +10442,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -10546,7 +10524,7 @@
         <v>1876.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -10628,7 +10606,7 @@
         <v>1954.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -10710,7 +10688,7 @@
         <v>2188.5</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -10792,7 +10770,7 @@
         <v>2188.5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -10874,7 +10852,7 @@
         <v>2188.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -10956,7 +10934,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -11038,7 +11016,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -11120,7 +11098,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -11213,15 +11191,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.90625" customWidth="1"/>
-    <col min="19" max="23" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="23" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11277,7 +11255,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -11349,7 +11327,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -11421,7 +11399,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -11493,7 +11471,7 @@
         <v>769.9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -11565,7 +11543,7 @@
         <v>769.9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -11637,7 +11615,7 @@
         <v>769.9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -11709,7 +11687,7 @@
         <v>5921.9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -11781,7 +11759,7 @@
         <v>5921.9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -11853,7 +11831,7 @@
         <v>5921.9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -11925,7 +11903,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -11997,7 +11975,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -12069,7 +12047,7 @@
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -12141,7 +12119,7 @@
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -12213,7 +12191,7 @@
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -12285,7 +12263,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -12357,7 +12335,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -12429,7 +12407,7 @@
         <v>4737.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -12501,7 +12479,7 @@
         <v>4934.8</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -12573,7 +12551,7 @@
         <v>6316.9</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -12645,7 +12623,7 @@
         <v>6316.9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -12717,7 +12695,7 @@
         <v>6316.9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -12789,7 +12767,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -12861,7 +12839,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -12933,7 +12911,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
